--- a/data/maps/data.xlsx
+++ b/data/maps/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spalazzi&amp;IDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spalazzi&amp;IDS\MAPPAFINALE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
     <sheet name="scale" sheetId="3" r:id="rId3"/>
     <sheet name="vie di piano" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="120">
   <si>
     <t>originali</t>
   </si>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1162,6 +1162,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,28 +1208,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,12 +1229,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1552,93 +1552,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV130"/>
   <sheetViews>
-    <sheetView topLeftCell="S52" workbookViewId="0">
-      <selection activeCell="AF73" sqref="AF73"/>
+    <sheetView topLeftCell="J100" workbookViewId="0">
+      <selection activeCell="X112" sqref="X112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="20" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.88671875" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="8.88671875" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="8.88671875" customWidth="1"/>
-    <col min="36" max="36" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.90625" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.90625" customWidth="1"/>
+    <col min="24" max="24" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="8.90625" customWidth="1"/>
+    <col min="32" max="32" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="8.90625" customWidth="1"/>
+    <col min="36" max="36" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="F1" s="39" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="39"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="53"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="39"/>
+      <c r="N1" s="53"/>
       <c r="O1" s="1"/>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39" t="s">
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Z1" s="40" t="s">
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Z1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="56"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AJ1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="45" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="44"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="58"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="4"/>
     </row>
-    <row r="2" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="AG2" s="7"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
-      <c r="AJ2" s="47"/>
+      <c r="AJ2" s="61"/>
       <c r="AK2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-187.78228902999999</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
-      <c r="AJ3" s="47"/>
+      <c r="AJ3" s="61"/>
       <c r="AK3" s="14">
         <f>AC3</f>
         <v>91</v>
@@ -1917,7 +1917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-166.87290999000001</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
-      <c r="AJ4" s="47"/>
+      <c r="AJ4" s="61"/>
       <c r="AK4" s="14">
         <f>AC8</f>
         <v>91</v>
@@ -1995,7 +1995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-209.81049229999999</v>
       </c>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="47"/>
+      <c r="AJ5" s="61"/>
       <c r="AK5" s="19">
         <v>144</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-191.08496156999999</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="47"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="19">
         <f>AK5</f>
         <v>144</v>
@@ -2220,7 +2220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-208.66131462999999</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="47"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="24">
         <f>AC7</f>
         <v>63</v>
@@ -2363,7 +2363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>-210.22634878</v>
       </c>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="48"/>
+      <c r="AJ8" s="62"/>
       <c r="AK8" s="29">
         <v>63</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-209.81049229999999</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>-208.66131462999999</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-209.81049229999999</v>
       </c>
@@ -2653,21 +2653,21 @@
         <f t="shared" ref="X11" si="72">IF(O11=0,INDEX($AG$13:$AG$33,MATCH(W11,$AI$13:$AI$33,0)),IF(O11=3,INDEX($AG$35:$AG$54,MATCH(W11,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W11,$AI$56:$AI$79,0))))</f>
         <v>145U1</v>
       </c>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="50" t="s">
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="51"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="64"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-213.17370317000001</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="AJ12" s="36"/>
       <c r="AM12" s="36"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>-213.10838369999999</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="AF13" s="6">
         <v>1.8</v>
       </c>
-      <c r="AG13" s="53" t="s">
+      <c r="AG13" s="40" t="s">
         <v>63</v>
       </c>
       <c r="AH13" s="6">
@@ -2817,7 +2817,7 @@
         <v>6.549295774647887</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>-209.81049229999999</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="AF14" s="36">
         <v>3</v>
       </c>
-      <c r="AG14" s="53" t="s">
+      <c r="AG14" s="40" t="s">
         <v>30</v>
       </c>
       <c r="AH14" s="6">
@@ -2863,7 +2863,7 @@
         <v>5.3448275862068968</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-213.10838369999999</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="AF15" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG15" s="53" t="s">
+      <c r="AG15" s="40" t="s">
         <v>31</v>
       </c>
       <c r="AH15" s="6">
@@ -2973,7 +2973,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-214.91573586000001</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="AF16" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG16" s="53" t="s">
+      <c r="AG16" s="40" t="s">
         <v>32</v>
       </c>
       <c r="AH16" s="6">
@@ -3019,7 +3019,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-166.87290999000001</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="AF17" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG17" s="53" t="s">
+      <c r="AG17" s="40" t="s">
         <v>33</v>
       </c>
       <c r="AH17" s="6">
@@ -3129,7 +3129,7 @@
         <v>3.9075630252100839</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>-164.90736299</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="AF18" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG18" s="53" t="s">
+      <c r="AG18" s="40" t="s">
         <v>34</v>
       </c>
       <c r="AH18" s="6">
@@ -3175,7 +3175,7 @@
         <v>3.6090225563909772</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-166.87290999000001</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="AF19" s="36">
         <v>3</v>
       </c>
-      <c r="AG19" s="53" t="s">
+      <c r="AG19" s="40" t="s">
         <v>35</v>
       </c>
       <c r="AH19" s="6">
@@ -3285,7 +3285,7 @@
         <v>3.4962406015037595</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>-169.85616898000001</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="AF20" s="36">
         <v>3</v>
       </c>
-      <c r="AG20" s="53" t="s">
+      <c r="AG20" s="40" t="s">
         <v>36</v>
       </c>
       <c r="AH20" s="6">
@@ -3331,7 +3331,7 @@
         <v>3.5413533834586466</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>-156.57190889</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="AF21" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG21" s="53" t="s">
+      <c r="AG21" s="40" t="s">
         <v>37</v>
       </c>
       <c r="AH21" s="6">
@@ -3441,7 +3441,7 @@
         <v>3.2482758620689656</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>-155.15674143999999</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="AF22" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG22" s="53" t="str">
+      <c r="AG22" s="40" t="str">
         <f>AE3</f>
         <v>145A5</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>5.3186813186813184</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>-155.48713126000001</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="AF23" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG23" s="53" t="str">
+      <c r="AG23" s="40" t="str">
         <f>AE4</f>
         <v>145A3</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>3.3076923076923075</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>-156.57190889</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="AF24" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG24" s="53" t="s">
+      <c r="AG24" s="40" t="s">
         <v>50</v>
       </c>
       <c r="AH24" s="6">
@@ -3641,7 +3641,7 @@
         <v>5.5402298850574709</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>-166.87290999000001</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="AF25" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG25" s="53" t="s">
+      <c r="AG25" s="40" t="s">
         <v>49</v>
       </c>
       <c r="AH25" s="6">
@@ -3751,7 +3751,7 @@
         <v>5.4111111111111114</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>-155.48713126000001</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="AF26" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG26" s="53" t="s">
+      <c r="AG26" s="40" t="s">
         <v>47</v>
       </c>
       <c r="AH26" s="6">
@@ -3797,7 +3797,7 @@
         <v>3.4923076923076923</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>-166.87290999000001</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="AF27" s="36">
         <v>3</v>
       </c>
-      <c r="AG27" s="53" t="s">
+      <c r="AG27" s="40" t="s">
         <v>48</v>
       </c>
       <c r="AH27" s="6">
@@ -3907,7 +3907,7 @@
         <v>3.6240601503759398</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>-167.16640468</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="AF28" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG28" s="53" t="s">
+      <c r="AG28" s="40" t="s">
         <v>40</v>
       </c>
       <c r="AH28" s="6">
@@ -3955,7 +3955,7 @@
         <v>3.3629629629629632</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>-166.87290999000001</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="AF29" s="36">
         <v>1.2</v>
       </c>
-      <c r="AG29" s="53" t="s">
+      <c r="AG29" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AH29" s="6">
@@ -4067,7 +4067,7 @@
         <v>4.4220183486238529</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>-166.87290999000001</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="AF30" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG30" s="53" t="s">
+      <c r="AG30" s="40" t="s">
         <v>44</v>
       </c>
       <c r="AH30" s="6">
@@ -4113,7 +4113,7 @@
         <v>7.3809523809523814</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>-166.87290999000001</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="AF31" s="36">
         <v>3</v>
       </c>
-      <c r="AG31" s="53" t="s">
+      <c r="AG31" s="40" t="s">
         <v>45</v>
       </c>
       <c r="AH31" s="6">
@@ -4223,7 +4223,7 @@
         <v>5.341176470588235</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>-166.87290999000001</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="AF32" s="36">
         <v>1.2</v>
       </c>
-      <c r="AG32" s="53" t="s">
+      <c r="AG32" s="40" t="s">
         <v>43</v>
       </c>
       <c r="AH32" s="6">
@@ -4269,7 +4269,7 @@
         <v>4.3035714285714288</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>-181.00634647000001</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="AF33" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG33" s="53" t="s">
+      <c r="AG33" s="40" t="s">
         <v>46</v>
       </c>
       <c r="AH33" s="6">
@@ -4379,7 +4379,7 @@
         <v>3.2758620689655173</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>-166.87290999000001</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="7"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>-199.5615689</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="AF35" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG35" s="53" t="s">
+      <c r="AG35" s="40" t="s">
         <v>61</v>
       </c>
       <c r="AH35" s="6">
@@ -4515,7 +4515,7 @@
         <v>5.3448275862068968</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>-181.00634647000001</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="AF36" s="36">
         <v>3</v>
       </c>
-      <c r="AG36" s="53" t="s">
+      <c r="AG36" s="40" t="s">
         <v>62</v>
       </c>
       <c r="AH36" s="6">
@@ -4561,7 +4561,7 @@
         <v>5.2413793103448274</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>-213.10838369999999</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="AF37" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG37" s="53" t="s">
+      <c r="AG37" s="40" t="s">
         <v>64</v>
       </c>
       <c r="AH37" s="6">
@@ -4671,7 +4671,7 @@
         <v>5.2444444444444445</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>-199.5615689</v>
       </c>
@@ -4682,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="54">
+      <c r="Z38" s="41">
         <v>68.965999999999994</v>
       </c>
-      <c r="AA38" s="54">
+      <c r="AA38" s="41">
         <v>364.45600000000002</v>
       </c>
       <c r="AB38" s="13">
@@ -4717,7 +4717,7 @@
         <v>6.72463768115942</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>-229.18082853000001</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="AF39" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG39" s="53" t="s">
+      <c r="AG39" s="40" t="s">
         <v>68</v>
       </c>
       <c r="AH39" s="6">
@@ -4827,7 +4827,7 @@
         <v>3.4814814814814814</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>-213.10838369999999</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="AF40" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG40" s="53" t="s">
+      <c r="AG40" s="40" t="s">
         <v>67</v>
       </c>
       <c r="AH40" s="6">
@@ -4873,7 +4873,7 @@
         <v>3.3777777777777778</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>-237.45089726</v>
       </c>
@@ -4948,13 +4948,13 @@
         <v>145DICEA</v>
       </c>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="54">
+      <c r="Z41" s="41">
         <v>151.08000000000001</v>
       </c>
-      <c r="AA41" s="54">
+      <c r="AA41" s="41">
         <v>385.37</v>
       </c>
-      <c r="AB41" s="57">
+      <c r="AB41" s="44">
         <v>3</v>
       </c>
       <c r="AC41" s="36">
@@ -4972,7 +4972,7 @@
       <c r="AF41" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG41" s="53" t="s">
+      <c r="AG41" s="40" t="s">
         <v>72</v>
       </c>
       <c r="AH41" s="6">
@@ -4986,7 +4986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" s="38">
         <v>-229.18082853000001</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="AF42" s="36">
         <v>3</v>
       </c>
-      <c r="AG42" s="53" t="s">
+      <c r="AG42" s="40" t="s">
         <v>74</v>
       </c>
       <c r="AH42" s="6">
@@ -5056,7 +5056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>-189.53676204000001</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="AF43" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG43" s="53" t="s">
+      <c r="AG43" s="40" t="s">
         <v>75</v>
       </c>
       <c r="AH43" s="6">
@@ -5166,7 +5166,7 @@
         <v>3.089171974522293</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>-171.13742293999999</v>
       </c>
@@ -5177,10 +5177,10 @@
         <v>3</v>
       </c>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="54">
+      <c r="Z44" s="41">
         <v>128.86000000000001</v>
       </c>
-      <c r="AA44" s="54">
+      <c r="AA44" s="41">
         <v>365</v>
       </c>
       <c r="AB44" s="13">
@@ -5212,7 +5212,7 @@
         <v>3.6046511627906979</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>-189.53676204000001</v>
       </c>
@@ -5286,10 +5286,10 @@
         <v>145EMG2</v>
       </c>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="54">
+      <c r="Z45" s="41">
         <v>110.46</v>
       </c>
-      <c r="AA45" s="54">
+      <c r="AA45" s="41">
         <v>365</v>
       </c>
       <c r="AB45" s="13">
@@ -5321,7 +5321,7 @@
         <v>4.2272727272727275</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>-187.78228902999999</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>5.2608695652173916</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>-189.53676204000001</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>3.2916666666666665</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>-207.76138978</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>7.3650793650793647</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>-191.08496156999999</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="AF49" s="36">
         <v>3</v>
       </c>
-      <c r="AG49" s="53" t="s">
+      <c r="AG49" s="40" t="s">
         <v>71</v>
       </c>
       <c r="AH49" s="6">
@@ -5626,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>-189.53676204000001</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="AF50" s="36">
         <v>1.8</v>
       </c>
-      <c r="AG50" s="53" t="s">
+      <c r="AG50" s="40" t="s">
         <v>66</v>
       </c>
       <c r="AH50" s="6">
@@ -5677,7 +5677,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>-210.27180315000001</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>-208.80854235999999</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>-213.28005669999999</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>-210.27180315000001</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>-148.91061619999999</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="AH55" s="6"/>
       <c r="AI55" s="7"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>-153.40900747000001</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>-143.22068092000001</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>-148.91061619999999</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>-143.22068092000001</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>-150.10633493</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>-145.79312171000001</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>3.511278195488722</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>-143.22068092000001</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>3.3529411764705883</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>-148.24117397000001</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>-137.07569185</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>3.1677852348993287</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>-165.23476565000001</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>2.9610389610389611</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>-165.23476565000001</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>2.9685534591194966</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>-165.23476565000001</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>-171.13742293999999</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>-156.33580731000001</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>-165.23476565000001</v>
       </c>
@@ -7204,10 +7204,10 @@
         <v>3</v>
       </c>
       <c r="Y70" s="5"/>
-      <c r="Z70" s="54">
+      <c r="Z70" s="41">
         <v>86.39</v>
       </c>
-      <c r="AA70" s="54">
+      <c r="AA70" s="41">
         <v>464.68</v>
       </c>
       <c r="AB70" s="13">
@@ -7239,7 +7239,7 @@
         <v>5.4069767441860463</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>-145.79312171000001</v>
       </c>
@@ -7314,13 +7314,13 @@
         <v>150A3</v>
       </c>
       <c r="Y71" s="5"/>
-      <c r="Z71" s="54">
+      <c r="Z71" s="41">
         <v>157.85</v>
       </c>
-      <c r="AA71" s="54">
+      <c r="AA71" s="41">
         <v>482</v>
       </c>
-      <c r="AB71" s="54">
+      <c r="AB71" s="41">
         <v>6</v>
       </c>
       <c r="AC71" s="36">
@@ -7349,7 +7349,7 @@
         <v>3.0506329113924049</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>-156.33580731000001</v>
       </c>
@@ -7360,13 +7360,13 @@
         <v>3</v>
       </c>
       <c r="Y72" s="5"/>
-      <c r="Z72" s="54">
+      <c r="Z72" s="41">
         <v>160</v>
       </c>
-      <c r="AA72" s="54">
+      <c r="AA72" s="41">
         <v>445</v>
       </c>
-      <c r="AB72" s="54">
+      <c r="AB72" s="41">
         <v>6</v>
       </c>
       <c r="AC72" s="36">
@@ -7398,7 +7398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>-148.24117397000001</v>
       </c>
@@ -7483,7 +7483,7 @@
         <f t="shared" si="588"/>
         <v>484</v>
       </c>
-      <c r="AB73" s="54">
+      <c r="AB73" s="41">
         <v>6</v>
       </c>
       <c r="AC73" s="36">
@@ -7513,7 +7513,7 @@
         <v>5.3186813186813184</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>-145.79312171000001</v>
       </c>
@@ -7532,7 +7532,7 @@
         <f t="shared" si="588"/>
         <v>474</v>
       </c>
-      <c r="AB74" s="54">
+      <c r="AB74" s="41">
         <v>6</v>
       </c>
       <c r="AC74" s="36">
@@ -7562,7 +7562,7 @@
         <v>3.2916666666666665</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>-165.23476565000001</v>
       </c>
@@ -7645,7 +7645,7 @@
         <f t="shared" si="588"/>
         <v>465</v>
       </c>
-      <c r="AB75" s="54">
+      <c r="AB75" s="41">
         <v>6</v>
       </c>
       <c r="AC75" s="36">
@@ -7675,7 +7675,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>-148.24117397000001</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>-200.12618098999999</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>-165.23476565000001</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>-213.28005669999999</v>
       </c>
@@ -7959,7 +7959,7 @@
         <f t="shared" ref="X79" si="648">IF(O79=0,INDEX($AG$13:$AG$33,MATCH(W79,$AI$13:$AI$33,0)),IF(O79=3,INDEX($AG$35:$AG$54,MATCH(W79,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W79,$AI$56:$AI$79,0))))</f>
         <v>150EMA7</v>
       </c>
-      <c r="Y79" s="55" t="s">
+      <c r="Y79" s="42" t="s">
         <v>38</v>
       </c>
       <c r="Z79" s="34">
@@ -7971,11 +7971,11 @@
       <c r="AB79" s="34">
         <v>6</v>
       </c>
-      <c r="AC79" s="56">
+      <c r="AC79" s="43">
         <f>MROUND(Z79+150,1)</f>
         <v>136</v>
       </c>
-      <c r="AD79" s="56">
+      <c r="AD79" s="43">
         <f t="shared" si="630"/>
         <v>454</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>3.3382352941176472</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>-200.12618098999999</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>-213.28005669999999</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>150STRADE</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>-213.28005669999999</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>-231.03400335000001</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>150G1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>-213.28005669999999</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>-237.28475732999999</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>150DICEA1</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="38">
         <v>-231.03400335000001</v>
       </c>
@@ -8287,7 +8287,7 @@
       <c r="W86" s="38"/>
       <c r="X86" s="38"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>-208.69413392999999</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>155A5</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>-208.69815535000001</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>-199.96954263999999</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>155EM1</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>-200.05283453999999</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>-140.24464076999999</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>155UP</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>-139.88110867</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>-140.60817286</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>155EM4</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>-140.24464076999999</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>-153.07886694000001</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>155WC2</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>-150.85892000000001</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>-159.94648953000001</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>155WC2</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>-150.85892000000001</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>-166.74865986</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>155ECDL</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>-159.94648953000001</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>-150.85892000000001</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>155A3</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>-155.87244443</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>-140.60817286</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>155WC2</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>-150.85892000000001</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>-140.60817286</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>155BAR</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>-142.14926144</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>-140.60817286</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>155CESMI</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>-140.60817286</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>-146.41028195999999</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>155ACQ</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>-140.60817286</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>-153.07886694000001</v>
       </c>
@@ -9389,12 +9389,11 @@
         <f t="shared" ref="W111" si="902">N111/M111</f>
         <v>2.9610389610389611</v>
       </c>
-      <c r="X111" t="str">
-        <f t="shared" ref="X111" si="903">IF(O111=0,INDEX($AG$13:$AG$33,MATCH(W111,$AI$13:$AI$33,0)),IF(O111=3,INDEX($AG$35:$AG$54,MATCH(W111,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W111,$AI$56:$AI$79,0))))</f>
-        <v>155EM3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>-146.41028195999999</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>-164.47036104</v>
       </c>
@@ -9416,71 +9415,71 @@
         <v>6</v>
       </c>
       <c r="F113">
-        <f t="shared" ref="F113" si="904">A113+300</f>
+        <f t="shared" ref="F113" si="903">A113+300</f>
         <v>135.52963896</v>
       </c>
       <c r="G113">
-        <f t="shared" ref="G113" si="905">B113</f>
+        <f t="shared" ref="G113" si="904">B113</f>
         <v>455.74253533000001</v>
       </c>
       <c r="H113">
-        <f t="shared" ref="H113" si="906">A114+300</f>
+        <f t="shared" ref="H113" si="905">A114+300</f>
         <v>146.92113305999999</v>
       </c>
       <c r="I113">
-        <f t="shared" ref="I113" si="907">B114</f>
+        <f t="shared" ref="I113" si="906">B114</f>
         <v>455.74253533000001</v>
       </c>
       <c r="J113">
-        <f t="shared" ref="J113" si="908">MROUND(F113,1)</f>
+        <f t="shared" ref="J113" si="907">MROUND(F113,1)</f>
         <v>136</v>
       </c>
       <c r="K113">
-        <f t="shared" ref="K113" si="909">IF($C113=0,MROUND(G113,1)+50,IF($C113=3,MROUND(G113,1)+100,MROUND(G113,1)))</f>
+        <f t="shared" ref="K113" si="908">IF($C113=0,MROUND(G113,1)+50,IF($C113=3,MROUND(G113,1)+100,MROUND(G113,1)))</f>
         <v>456</v>
       </c>
       <c r="L113">
-        <f t="shared" ref="L113" si="910">C113</f>
+        <f t="shared" ref="L113" si="909">C113</f>
         <v>6</v>
       </c>
       <c r="M113">
-        <f t="shared" ref="M113" si="911">MROUND(H113,1)</f>
+        <f t="shared" ref="M113" si="910">MROUND(H113,1)</f>
         <v>147</v>
       </c>
       <c r="N113">
-        <f t="shared" ref="N113" si="912">IF($C113=0,MROUND(I113,1)+50,IF($C113=3,MROUND(I113,1)+100,MROUND(I113,1)))</f>
+        <f t="shared" ref="N113" si="911">IF($C113=0,MROUND(I113,1)+50,IF($C113=3,MROUND(I113,1)+100,MROUND(I113,1)))</f>
         <v>456</v>
       </c>
       <c r="O113">
-        <f t="shared" ref="O113" si="913">C114</f>
+        <f t="shared" ref="O113" si="912">C114</f>
         <v>6</v>
       </c>
       <c r="S113" t="str">
-        <f t="shared" ref="S113" si="914">IF(L113=0,"145",IF(L113=3,"150","155"))</f>
+        <f t="shared" ref="S113" si="913">IF(L113=0,"145",IF(L113=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T113">
-        <f t="shared" ref="T113" si="915">K113/J113</f>
+        <f t="shared" ref="T113" si="914">K113/J113</f>
         <v>3.3529411764705883</v>
       </c>
       <c r="U113" t="str">
-        <f t="shared" ref="U113" si="916">IF(L113=0,INDEX($AG$13:$AG$33,MATCH(T113,$AI$13:$AI$33,0)),IF(L113=3,INDEX($AG$35:$AG$54,MATCH(T113,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T113,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="U113" si="915">IF(L113=0,INDEX($AG$13:$AG$33,MATCH(T113,$AI$13:$AI$33,0)),IF(L113=3,INDEX($AG$35:$AG$54,MATCH(T113,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T113,$AI$56:$AI$79,0))))</f>
         <v>155EM1</v>
       </c>
       <c r="V113" t="str">
-        <f t="shared" ref="V113" si="917">IF(O113=0,"145",IF(O113=3,"150","155"))</f>
+        <f t="shared" ref="V113" si="916">IF(O113=0,"145",IF(O113=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W113">
-        <f t="shared" ref="W113" si="918">N113/M113</f>
+        <f t="shared" ref="W113" si="917">N113/M113</f>
         <v>3.1020408163265305</v>
       </c>
       <c r="X113" t="str">
-        <f t="shared" ref="X113" si="919">IF(O113=0,INDEX($AG$13:$AG$33,MATCH(W113,$AI$13:$AI$33,0)),IF(O113=3,INDEX($AG$35:$AG$54,MATCH(W113,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W113,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="X113" si="918">IF(O113=0,INDEX($AG$13:$AG$33,MATCH(W113,$AI$13:$AI$33,0)),IF(O113=3,INDEX($AG$35:$AG$54,MATCH(W113,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W113,$AI$56:$AI$79,0))))</f>
         <v>155S1</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>-153.07886694000001</v>
       </c>
@@ -9491,7 +9490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>-166.74865986</v>
       </c>
@@ -9502,71 +9501,70 @@
         <v>6</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="920">A115+300</f>
+        <f t="shared" ref="F115" si="919">A115+300</f>
         <v>133.25134014</v>
       </c>
       <c r="G115">
-        <f t="shared" ref="G115" si="921">B115</f>
+        <f t="shared" ref="G115" si="920">B115</f>
         <v>466.57782939999998</v>
       </c>
       <c r="H115">
-        <f t="shared" ref="H115" si="922">A116+300</f>
+        <f t="shared" ref="H115" si="921">A116+300</f>
         <v>135.52963896</v>
       </c>
       <c r="I115">
-        <f t="shared" ref="I115" si="923">B116</f>
+        <f t="shared" ref="I115" si="922">B116</f>
         <v>455.74253533000001</v>
       </c>
       <c r="J115">
-        <f t="shared" ref="J115" si="924">MROUND(F115,1)</f>
+        <f t="shared" ref="J115" si="923">MROUND(F115,1)</f>
         <v>133</v>
       </c>
       <c r="K115">
-        <f t="shared" ref="K115" si="925">IF($C115=0,MROUND(G115,1)+50,IF($C115=3,MROUND(G115,1)+100,MROUND(G115,1)))</f>
+        <f t="shared" ref="K115" si="924">IF($C115=0,MROUND(G115,1)+50,IF($C115=3,MROUND(G115,1)+100,MROUND(G115,1)))</f>
         <v>467</v>
       </c>
       <c r="L115">
-        <f t="shared" ref="L115" si="926">C115</f>
+        <f t="shared" ref="L115" si="925">C115</f>
         <v>6</v>
       </c>
       <c r="M115">
-        <f t="shared" ref="M115" si="927">MROUND(H115,1)</f>
+        <f t="shared" ref="M115" si="926">MROUND(H115,1)</f>
         <v>136</v>
       </c>
       <c r="N115">
-        <f t="shared" ref="N115" si="928">IF($C115=0,MROUND(I115,1)+50,IF($C115=3,MROUND(I115,1)+100,MROUND(I115,1)))</f>
+        <f t="shared" ref="N115" si="927">IF($C115=0,MROUND(I115,1)+50,IF($C115=3,MROUND(I115,1)+100,MROUND(I115,1)))</f>
         <v>456</v>
       </c>
       <c r="O115">
-        <f t="shared" ref="O115" si="929">C116</f>
+        <f t="shared" ref="O115" si="928">C116</f>
         <v>6</v>
       </c>
       <c r="S115" t="str">
-        <f t="shared" ref="S115" si="930">IF(L115=0,"145",IF(L115=3,"150","155"))</f>
+        <f t="shared" ref="S115" si="929">IF(L115=0,"145",IF(L115=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T115">
-        <f t="shared" ref="T115" si="931">K115/J115</f>
+        <f t="shared" ref="T115" si="930">K115/J115</f>
         <v>3.511278195488722</v>
       </c>
       <c r="U115" t="str">
-        <f t="shared" ref="U115" si="932">IF(L115=0,INDEX($AG$13:$AG$33,MATCH(T115,$AI$13:$AI$33,0)),IF(L115=3,INDEX($AG$35:$AG$54,MATCH(T115,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T115,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="U115" si="931">IF(L115=0,INDEX($AG$13:$AG$33,MATCH(T115,$AI$13:$AI$33,0)),IF(L115=3,INDEX($AG$35:$AG$54,MATCH(T115,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T115,$AI$56:$AI$79,0))))</f>
         <v>155WC1</v>
       </c>
       <c r="V115" t="str">
-        <f t="shared" ref="V115" si="933">IF(O115=0,"145",IF(O115=3,"150","155"))</f>
+        <f t="shared" ref="V115" si="932">IF(O115=0,"145",IF(O115=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W115">
-        <f t="shared" ref="W115" si="934">N115/M115</f>
+        <f t="shared" ref="W115" si="933">N115/M115</f>
         <v>3.3529411764705883</v>
       </c>
-      <c r="X115" t="str">
-        <f t="shared" ref="X115" si="935">IF(O115=0,INDEX($AG$13:$AG$33,MATCH(W115,$AI$13:$AI$33,0)),IF(O115=3,INDEX($AG$35:$AG$54,MATCH(W115,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W115,$AI$56:$AI$79,0))))</f>
-        <v>155EM1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X115" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>-164.47036104</v>
       </c>
@@ -9577,7 +9575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>-174.81992503000001</v>
       </c>
@@ -9588,71 +9586,71 @@
         <v>6</v>
       </c>
       <c r="F117">
-        <f t="shared" ref="F117" si="936">A117+300</f>
+        <f t="shared" ref="F117" si="934">A117+300</f>
         <v>125.18007496999999</v>
       </c>
       <c r="G117">
-        <f t="shared" ref="G117" si="937">B117</f>
+        <f t="shared" ref="G117" si="935">B117</f>
         <v>466.57782939999998</v>
       </c>
       <c r="H117">
-        <f t="shared" ref="H117" si="938">A118+300</f>
+        <f t="shared" ref="H117" si="936">A118+300</f>
         <v>133.25134014</v>
       </c>
       <c r="I117">
-        <f t="shared" ref="I117" si="939">B118</f>
+        <f t="shared" ref="I117" si="937">B118</f>
         <v>466.57782939999998</v>
       </c>
       <c r="J117">
-        <f t="shared" ref="J117" si="940">MROUND(F117,1)</f>
+        <f t="shared" ref="J117" si="938">MROUND(F117,1)</f>
         <v>125</v>
       </c>
       <c r="K117">
-        <f t="shared" ref="K117" si="941">IF($C117=0,MROUND(G117,1)+50,IF($C117=3,MROUND(G117,1)+100,MROUND(G117,1)))</f>
+        <f t="shared" ref="K117" si="939">IF($C117=0,MROUND(G117,1)+50,IF($C117=3,MROUND(G117,1)+100,MROUND(G117,1)))</f>
         <v>467</v>
       </c>
       <c r="L117">
-        <f t="shared" ref="L117" si="942">C117</f>
+        <f t="shared" ref="L117" si="940">C117</f>
         <v>6</v>
       </c>
       <c r="M117">
-        <f t="shared" ref="M117" si="943">MROUND(H117,1)</f>
+        <f t="shared" ref="M117" si="941">MROUND(H117,1)</f>
         <v>133</v>
       </c>
       <c r="N117">
-        <f t="shared" ref="N117" si="944">IF($C117=0,MROUND(I117,1)+50,IF($C117=3,MROUND(I117,1)+100,MROUND(I117,1)))</f>
+        <f t="shared" ref="N117" si="942">IF($C117=0,MROUND(I117,1)+50,IF($C117=3,MROUND(I117,1)+100,MROUND(I117,1)))</f>
         <v>467</v>
       </c>
       <c r="O117">
-        <f t="shared" ref="O117" si="945">C118</f>
+        <f t="shared" ref="O117" si="943">C118</f>
         <v>6</v>
       </c>
       <c r="S117" t="str">
-        <f t="shared" ref="S117" si="946">IF(L117=0,"145",IF(L117=3,"150","155"))</f>
+        <f t="shared" ref="S117" si="944">IF(L117=0,"145",IF(L117=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T117">
-        <f t="shared" ref="T117" si="947">K117/J117</f>
+        <f t="shared" ref="T117" si="945">K117/J117</f>
         <v>3.7360000000000002</v>
       </c>
       <c r="U117" t="str">
-        <f t="shared" ref="U117" si="948">IF(L117=0,INDEX($AG$13:$AG$33,MATCH(T117,$AI$13:$AI$33,0)),IF(L117=3,INDEX($AG$35:$AG$54,MATCH(T117,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T117,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="U117" si="946">IF(L117=0,INDEX($AG$13:$AG$33,MATCH(T117,$AI$13:$AI$33,0)),IF(L117=3,INDEX($AG$35:$AG$54,MATCH(T117,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T117,$AI$56:$AI$79,0))))</f>
         <v>155RD1</v>
       </c>
       <c r="V117" t="str">
-        <f t="shared" ref="V117" si="949">IF(O117=0,"145",IF(O117=3,"150","155"))</f>
+        <f t="shared" ref="V117" si="947">IF(O117=0,"145",IF(O117=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W117">
-        <f t="shared" ref="W117" si="950">N117/M117</f>
+        <f t="shared" ref="W117" si="948">N117/M117</f>
         <v>3.511278195488722</v>
       </c>
       <c r="X117" t="str">
-        <f t="shared" ref="X117" si="951">IF(O117=0,INDEX($AG$13:$AG$33,MATCH(W117,$AI$13:$AI$33,0)),IF(O117=3,INDEX($AG$35:$AG$54,MATCH(W117,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W117,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="X117" si="949">IF(O117=0,INDEX($AG$13:$AG$33,MATCH(W117,$AI$13:$AI$33,0)),IF(O117=3,INDEX($AG$35:$AG$54,MATCH(W117,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W117,$AI$56:$AI$79,0))))</f>
         <v>155WC1</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>-166.74865986</v>
       </c>
@@ -9663,7 +9661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>-183.19525727999999</v>
       </c>
@@ -9674,71 +9672,71 @@
         <v>6</v>
       </c>
       <c r="F119">
-        <f t="shared" ref="F119" si="952">A119+300</f>
+        <f t="shared" ref="F119" si="950">A119+300</f>
         <v>116.80474272000001</v>
       </c>
       <c r="G119">
-        <f t="shared" ref="G119" si="953">B119</f>
+        <f t="shared" ref="G119" si="951">B119</f>
         <v>466.57782939999998</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119" si="954">A120+300</f>
+        <f t="shared" ref="H119" si="952">A120+300</f>
         <v>125.18007496999999</v>
       </c>
       <c r="I119">
-        <f t="shared" ref="I119" si="955">B120</f>
+        <f t="shared" ref="I119" si="953">B120</f>
         <v>466.57782939999998</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119" si="956">MROUND(F119,1)</f>
+        <f t="shared" ref="J119" si="954">MROUND(F119,1)</f>
         <v>117</v>
       </c>
       <c r="K119">
-        <f t="shared" ref="K119" si="957">IF($C119=0,MROUND(G119,1)+50,IF($C119=3,MROUND(G119,1)+100,MROUND(G119,1)))</f>
+        <f t="shared" ref="K119" si="955">IF($C119=0,MROUND(G119,1)+50,IF($C119=3,MROUND(G119,1)+100,MROUND(G119,1)))</f>
         <v>467</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119" si="958">C119</f>
+        <f t="shared" ref="L119" si="956">C119</f>
         <v>6</v>
       </c>
       <c r="M119">
-        <f t="shared" ref="M119" si="959">MROUND(H119,1)</f>
+        <f t="shared" ref="M119" si="957">MROUND(H119,1)</f>
         <v>125</v>
       </c>
       <c r="N119">
-        <f t="shared" ref="N119" si="960">IF($C119=0,MROUND(I119,1)+50,IF($C119=3,MROUND(I119,1)+100,MROUND(I119,1)))</f>
+        <f t="shared" ref="N119" si="958">IF($C119=0,MROUND(I119,1)+50,IF($C119=3,MROUND(I119,1)+100,MROUND(I119,1)))</f>
         <v>467</v>
       </c>
       <c r="O119">
-        <f t="shared" ref="O119" si="961">C120</f>
+        <f t="shared" ref="O119" si="959">C120</f>
         <v>6</v>
       </c>
       <c r="S119" t="str">
-        <f t="shared" ref="S119" si="962">IF(L119=0,"145",IF(L119=3,"150","155"))</f>
+        <f t="shared" ref="S119" si="960">IF(L119=0,"145",IF(L119=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T119">
-        <f t="shared" ref="T119" si="963">K119/J119</f>
+        <f t="shared" ref="T119" si="961">K119/J119</f>
         <v>3.9914529914529915</v>
       </c>
       <c r="U119" t="str">
-        <f t="shared" ref="U119" si="964">IF(L119=0,INDEX($AG$13:$AG$33,MATCH(T119,$AI$13:$AI$33,0)),IF(L119=3,INDEX($AG$35:$AG$54,MATCH(T119,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T119,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="U119" si="962">IF(L119=0,INDEX($AG$13:$AG$33,MATCH(T119,$AI$13:$AI$33,0)),IF(L119=3,INDEX($AG$35:$AG$54,MATCH(T119,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T119,$AI$56:$AI$79,0))))</f>
         <v>155R23D2</v>
       </c>
       <c r="V119" t="str">
-        <f t="shared" ref="V119" si="965">IF(O119=0,"145",IF(O119=3,"150","155"))</f>
+        <f t="shared" ref="V119" si="963">IF(O119=0,"145",IF(O119=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W119">
-        <f t="shared" ref="W119" si="966">N119/M119</f>
+        <f t="shared" ref="W119" si="964">N119/M119</f>
         <v>3.7360000000000002</v>
       </c>
       <c r="X119" t="str">
-        <f t="shared" ref="X119" si="967">IF(O119=0,INDEX($AG$13:$AG$33,MATCH(W119,$AI$13:$AI$33,0)),IF(O119=3,INDEX($AG$35:$AG$54,MATCH(W119,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W119,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="X119" si="965">IF(O119=0,INDEX($AG$13:$AG$33,MATCH(W119,$AI$13:$AI$33,0)),IF(O119=3,INDEX($AG$35:$AG$54,MATCH(W119,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W119,$AI$56:$AI$79,0))))</f>
         <v>155RD1</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>-174.81992503000001</v>
       </c>
@@ -9749,7 +9747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>-193.15901407000001</v>
       </c>
@@ -9760,71 +9758,71 @@
         <v>6</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="968">A121+300</f>
+        <f t="shared" ref="F121" si="966">A121+300</f>
         <v>106.84098592999999</v>
       </c>
       <c r="G121">
-        <f t="shared" ref="G121" si="969">B121</f>
+        <f t="shared" ref="G121" si="967">B121</f>
         <v>466.57782939999998</v>
       </c>
       <c r="H121">
-        <f t="shared" ref="H121" si="970">A122+300</f>
+        <f t="shared" ref="H121" si="968">A122+300</f>
         <v>116.80474272000001</v>
       </c>
       <c r="I121">
-        <f t="shared" ref="I121" si="971">B122</f>
+        <f t="shared" ref="I121" si="969">B122</f>
         <v>466.57782939999998</v>
       </c>
       <c r="J121">
-        <f t="shared" ref="J121" si="972">MROUND(F121,1)</f>
+        <f t="shared" ref="J121" si="970">MROUND(F121,1)</f>
         <v>107</v>
       </c>
       <c r="K121">
-        <f t="shared" ref="K121" si="973">IF($C121=0,MROUND(G121,1)+50,IF($C121=3,MROUND(G121,1)+100,MROUND(G121,1)))</f>
+        <f t="shared" ref="K121" si="971">IF($C121=0,MROUND(G121,1)+50,IF($C121=3,MROUND(G121,1)+100,MROUND(G121,1)))</f>
         <v>467</v>
       </c>
       <c r="L121">
-        <f t="shared" ref="L121" si="974">C121</f>
+        <f t="shared" ref="L121" si="972">C121</f>
         <v>6</v>
       </c>
       <c r="M121">
-        <f t="shared" ref="M121" si="975">MROUND(H121,1)</f>
+        <f t="shared" ref="M121" si="973">MROUND(H121,1)</f>
         <v>117</v>
       </c>
       <c r="N121">
-        <f t="shared" ref="N121" si="976">IF($C121=0,MROUND(I121,1)+50,IF($C121=3,MROUND(I121,1)+100,MROUND(I121,1)))</f>
+        <f t="shared" ref="N121" si="974">IF($C121=0,MROUND(I121,1)+50,IF($C121=3,MROUND(I121,1)+100,MROUND(I121,1)))</f>
         <v>467</v>
       </c>
       <c r="O121">
-        <f t="shared" ref="O121" si="977">C122</f>
+        <f t="shared" ref="O121" si="975">C122</f>
         <v>6</v>
       </c>
       <c r="S121" t="str">
-        <f t="shared" ref="S121" si="978">IF(L121=0,"145",IF(L121=3,"150","155"))</f>
+        <f t="shared" ref="S121" si="976">IF(L121=0,"145",IF(L121=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T121">
-        <f t="shared" ref="T121" si="979">K121/J121</f>
+        <f t="shared" ref="T121" si="977">K121/J121</f>
         <v>4.3644859813084116</v>
       </c>
       <c r="U121" t="str">
-        <f t="shared" ref="U121" si="980">IF(L121=0,INDEX($AG$13:$AG$33,MATCH(T121,$AI$13:$AI$33,0)),IF(L121=3,INDEX($AG$35:$AG$54,MATCH(T121,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T121,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="U121" si="978">IF(L121=0,INDEX($AG$13:$AG$33,MATCH(T121,$AI$13:$AI$33,0)),IF(L121=3,INDEX($AG$35:$AG$54,MATCH(T121,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T121,$AI$56:$AI$79,0))))</f>
         <v>155R4D3</v>
       </c>
       <c r="V121" t="str">
-        <f t="shared" ref="V121" si="981">IF(O121=0,"145",IF(O121=3,"150","155"))</f>
+        <f t="shared" ref="V121" si="979">IF(O121=0,"145",IF(O121=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W121">
-        <f t="shared" ref="W121" si="982">N121/M121</f>
+        <f t="shared" ref="W121" si="980">N121/M121</f>
         <v>3.9914529914529915</v>
       </c>
       <c r="X121" t="str">
-        <f t="shared" ref="X121" si="983">IF(O121=0,INDEX($AG$13:$AG$33,MATCH(W121,$AI$13:$AI$33,0)),IF(O121=3,INDEX($AG$35:$AG$54,MATCH(W121,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W121,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="X121" si="981">IF(O121=0,INDEX($AG$13:$AG$33,MATCH(W121,$AI$13:$AI$33,0)),IF(O121=3,INDEX($AG$35:$AG$54,MATCH(W121,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W121,$AI$56:$AI$79,0))))</f>
         <v>155R23D2</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>-183.19525727999999</v>
       </c>
@@ -9835,7 +9833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>-199.96954263999999</v>
       </c>
@@ -9846,71 +9844,71 @@
         <v>6</v>
       </c>
       <c r="F123">
-        <f t="shared" ref="F123" si="984">A123+300</f>
+        <f t="shared" ref="F123" si="982">A123+300</f>
         <v>100.03045736000001</v>
       </c>
       <c r="G123">
-        <f t="shared" ref="G123" si="985">B123</f>
+        <f t="shared" ref="G123" si="983">B123</f>
         <v>466.57782939999998</v>
       </c>
       <c r="H123">
-        <f t="shared" ref="H123" si="986">A124+300</f>
+        <f t="shared" ref="H123" si="984">A124+300</f>
         <v>106.84098592999999</v>
       </c>
       <c r="I123">
-        <f t="shared" ref="I123" si="987">B124</f>
+        <f t="shared" ref="I123" si="985">B124</f>
         <v>466.57782939999998</v>
       </c>
       <c r="J123">
-        <f t="shared" ref="J123" si="988">MROUND(F123,1)</f>
+        <f t="shared" ref="J123" si="986">MROUND(F123,1)</f>
         <v>100</v>
       </c>
       <c r="K123">
-        <f t="shared" ref="K123" si="989">IF($C123=0,MROUND(G123,1)+50,IF($C123=3,MROUND(G123,1)+100,MROUND(G123,1)))</f>
+        <f t="shared" ref="K123" si="987">IF($C123=0,MROUND(G123,1)+50,IF($C123=3,MROUND(G123,1)+100,MROUND(G123,1)))</f>
         <v>467</v>
       </c>
       <c r="L123">
-        <f t="shared" ref="L123" si="990">C123</f>
+        <f t="shared" ref="L123" si="988">C123</f>
         <v>6</v>
       </c>
       <c r="M123">
-        <f t="shared" ref="M123" si="991">MROUND(H123,1)</f>
+        <f t="shared" ref="M123" si="989">MROUND(H123,1)</f>
         <v>107</v>
       </c>
       <c r="N123">
-        <f t="shared" ref="N123" si="992">IF($C123=0,MROUND(I123,1)+50,IF($C123=3,MROUND(I123,1)+100,MROUND(I123,1)))</f>
+        <f t="shared" ref="N123" si="990">IF($C123=0,MROUND(I123,1)+50,IF($C123=3,MROUND(I123,1)+100,MROUND(I123,1)))</f>
         <v>467</v>
       </c>
       <c r="O123">
-        <f t="shared" ref="O123" si="993">C124</f>
+        <f t="shared" ref="O123" si="991">C124</f>
         <v>6</v>
       </c>
       <c r="S123" t="str">
-        <f t="shared" ref="S123" si="994">IF(L123=0,"145",IF(L123=3,"150","155"))</f>
+        <f t="shared" ref="S123" si="992">IF(L123=0,"145",IF(L123=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T123">
-        <f t="shared" ref="T123" si="995">K123/J123</f>
+        <f t="shared" ref="T123" si="993">K123/J123</f>
         <v>4.67</v>
       </c>
       <c r="U123" t="str">
-        <f t="shared" ref="U123" si="996">IF(L123=0,INDEX($AG$13:$AG$33,MATCH(T123,$AI$13:$AI$33,0)),IF(L123=3,INDEX($AG$35:$AG$54,MATCH(T123,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T123,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="U123" si="994">IF(L123=0,INDEX($AG$13:$AG$33,MATCH(T123,$AI$13:$AI$33,0)),IF(L123=3,INDEX($AG$35:$AG$54,MATCH(T123,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T123,$AI$56:$AI$79,0))))</f>
         <v>155R4</v>
       </c>
       <c r="V123" t="str">
-        <f t="shared" ref="V123" si="997">IF(O123=0,"145",IF(O123=3,"150","155"))</f>
+        <f t="shared" ref="V123" si="995">IF(O123=0,"145",IF(O123=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W123">
-        <f t="shared" ref="W123" si="998">N123/M123</f>
+        <f t="shared" ref="W123" si="996">N123/M123</f>
         <v>4.3644859813084116</v>
       </c>
       <c r="X123" t="str">
-        <f t="shared" ref="X123" si="999">IF(O123=0,INDEX($AG$13:$AG$33,MATCH(W123,$AI$13:$AI$33,0)),IF(O123=3,INDEX($AG$35:$AG$54,MATCH(W123,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W123,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="X123" si="997">IF(O123=0,INDEX($AG$13:$AG$33,MATCH(W123,$AI$13:$AI$33,0)),IF(O123=3,INDEX($AG$35:$AG$54,MATCH(W123,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W123,$AI$56:$AI$79,0))))</f>
         <v>155R4D3</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>-193.15901407000001</v>
       </c>
@@ -9921,7 +9919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>-208.69413392999999</v>
       </c>
@@ -9932,71 +9930,71 @@
         <v>6</v>
       </c>
       <c r="F125">
-        <f t="shared" ref="F125" si="1000">A125+300</f>
+        <f t="shared" ref="F125" si="998">A125+300</f>
         <v>91.305866070000008</v>
       </c>
       <c r="G125">
-        <f t="shared" ref="G125" si="1001">B125</f>
+        <f t="shared" ref="G125" si="999">B125</f>
         <v>466.57782939999998</v>
       </c>
       <c r="H125">
-        <f t="shared" ref="H125" si="1002">A126+300</f>
+        <f t="shared" ref="H125" si="1000">A126+300</f>
         <v>100.03045736000001</v>
       </c>
       <c r="I125">
-        <f t="shared" ref="I125" si="1003">B126</f>
+        <f t="shared" ref="I125" si="1001">B126</f>
         <v>466.57782939999998</v>
       </c>
       <c r="J125">
-        <f t="shared" ref="J125" si="1004">MROUND(F125,1)</f>
+        <f t="shared" ref="J125" si="1002">MROUND(F125,1)</f>
         <v>91</v>
       </c>
       <c r="K125">
-        <f t="shared" ref="K125" si="1005">IF($C125=0,MROUND(G125,1)+50,IF($C125=3,MROUND(G125,1)+100,MROUND(G125,1)))</f>
+        <f t="shared" ref="K125" si="1003">IF($C125=0,MROUND(G125,1)+50,IF($C125=3,MROUND(G125,1)+100,MROUND(G125,1)))</f>
         <v>467</v>
       </c>
       <c r="L125">
-        <f t="shared" ref="L125" si="1006">C125</f>
+        <f t="shared" ref="L125" si="1004">C125</f>
         <v>6</v>
       </c>
       <c r="M125">
-        <f t="shared" ref="M125" si="1007">MROUND(H125,1)</f>
+        <f t="shared" ref="M125" si="1005">MROUND(H125,1)</f>
         <v>100</v>
       </c>
       <c r="N125">
-        <f t="shared" ref="N125" si="1008">IF($C125=0,MROUND(I125,1)+50,IF($C125=3,MROUND(I125,1)+100,MROUND(I125,1)))</f>
+        <f t="shared" ref="N125" si="1006">IF($C125=0,MROUND(I125,1)+50,IF($C125=3,MROUND(I125,1)+100,MROUND(I125,1)))</f>
         <v>467</v>
       </c>
       <c r="O125">
-        <f t="shared" ref="O125" si="1009">C126</f>
+        <f t="shared" ref="O125" si="1007">C126</f>
         <v>6</v>
       </c>
       <c r="S125" t="str">
-        <f t="shared" ref="S125" si="1010">IF(L125=0,"145",IF(L125=3,"150","155"))</f>
+        <f t="shared" ref="S125" si="1008">IF(L125=0,"145",IF(L125=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T125">
-        <f t="shared" ref="T125" si="1011">K125/J125</f>
+        <f t="shared" ref="T125" si="1009">K125/J125</f>
         <v>5.1318681318681323</v>
       </c>
       <c r="U125" t="str">
-        <f t="shared" ref="U125" si="1012">IF(L125=0,INDEX($AG$13:$AG$33,MATCH(T125,$AI$13:$AI$33,0)),IF(L125=3,INDEX($AG$35:$AG$54,MATCH(T125,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T125,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="U125" si="1010">IF(L125=0,INDEX($AG$13:$AG$33,MATCH(T125,$AI$13:$AI$33,0)),IF(L125=3,INDEX($AG$35:$AG$54,MATCH(T125,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T125,$AI$56:$AI$79,0))))</f>
         <v>155R567</v>
       </c>
       <c r="V125" t="str">
-        <f t="shared" ref="V125" si="1013">IF(O125=0,"145",IF(O125=3,"150","155"))</f>
+        <f t="shared" ref="V125" si="1011">IF(O125=0,"145",IF(O125=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W125">
-        <f t="shared" ref="W125" si="1014">N125/M125</f>
+        <f t="shared" ref="W125" si="1012">N125/M125</f>
         <v>4.67</v>
       </c>
       <c r="X125" t="str">
-        <f t="shared" ref="X125" si="1015">IF(O125=0,INDEX($AG$13:$AG$33,MATCH(W125,$AI$13:$AI$33,0)),IF(O125=3,INDEX($AG$35:$AG$54,MATCH(W125,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W125,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="X125" si="1013">IF(O125=0,INDEX($AG$13:$AG$33,MATCH(W125,$AI$13:$AI$33,0)),IF(O125=3,INDEX($AG$35:$AG$54,MATCH(W125,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W125,$AI$56:$AI$79,0))))</f>
         <v>155R4</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>-199.96954263999999</v>
       </c>
@@ -10007,7 +10005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>-213.60880308</v>
       </c>
@@ -10018,71 +10016,71 @@
         <v>6</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="1016">A127+300</f>
+        <f t="shared" ref="F127" si="1014">A127+300</f>
         <v>86.391196919999999</v>
       </c>
       <c r="G127">
-        <f t="shared" ref="G127" si="1017">B127</f>
+        <f t="shared" ref="G127" si="1015">B127</f>
         <v>464.68882367999998</v>
       </c>
       <c r="H127">
-        <f t="shared" ref="H127" si="1018">A128+300</f>
+        <f t="shared" ref="H127" si="1016">A128+300</f>
         <v>91.305866070000008</v>
       </c>
       <c r="I127">
-        <f t="shared" ref="I127" si="1019">B128</f>
+        <f t="shared" ref="I127" si="1017">B128</f>
         <v>466.57782939999998</v>
       </c>
       <c r="J127">
-        <f t="shared" ref="J127" si="1020">MROUND(F127,1)</f>
+        <f t="shared" ref="J127" si="1018">MROUND(F127,1)</f>
         <v>86</v>
       </c>
       <c r="K127">
-        <f t="shared" ref="K127" si="1021">IF($C127=0,MROUND(G127,1)+50,IF($C127=3,MROUND(G127,1)+100,MROUND(G127,1)))</f>
+        <f t="shared" ref="K127" si="1019">IF($C127=0,MROUND(G127,1)+50,IF($C127=3,MROUND(G127,1)+100,MROUND(G127,1)))</f>
         <v>465</v>
       </c>
       <c r="L127">
-        <f t="shared" ref="L127" si="1022">C127</f>
+        <f t="shared" ref="L127" si="1020">C127</f>
         <v>6</v>
       </c>
       <c r="M127">
-        <f t="shared" ref="M127" si="1023">MROUND(H127,1)</f>
+        <f t="shared" ref="M127" si="1021">MROUND(H127,1)</f>
         <v>91</v>
       </c>
       <c r="N127">
-        <f t="shared" ref="N127" si="1024">IF($C127=0,MROUND(I127,1)+50,IF($C127=3,MROUND(I127,1)+100,MROUND(I127,1)))</f>
+        <f t="shared" ref="N127" si="1022">IF($C127=0,MROUND(I127,1)+50,IF($C127=3,MROUND(I127,1)+100,MROUND(I127,1)))</f>
         <v>467</v>
       </c>
       <c r="O127">
-        <f t="shared" ref="O127" si="1025">C128</f>
+        <f t="shared" ref="O127" si="1023">C128</f>
         <v>6</v>
       </c>
       <c r="S127" t="str">
-        <f t="shared" ref="S127" si="1026">IF(L127=0,"145",IF(L127=3,"150","155"))</f>
+        <f t="shared" ref="S127" si="1024">IF(L127=0,"145",IF(L127=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T127">
-        <f t="shared" ref="T127" si="1027">K127/J127</f>
+        <f t="shared" ref="T127" si="1025">K127/J127</f>
         <v>5.4069767441860463</v>
       </c>
       <c r="U127" t="str">
-        <f t="shared" ref="U127" si="1028">IF(L127=0,INDEX($AG$13:$AG$33,MATCH(T127,$AI$13:$AI$33,0)),IF(L127=3,INDEX($AG$35:$AG$54,MATCH(T127,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T127,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="U127" si="1026">IF(L127=0,INDEX($AG$13:$AG$33,MATCH(T127,$AI$13:$AI$33,0)),IF(L127=3,INDEX($AG$35:$AG$54,MATCH(T127,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(T127,$AI$56:$AI$79,0))))</f>
         <v>155DICEA</v>
       </c>
       <c r="V127" t="str">
-        <f t="shared" ref="V127" si="1029">IF(O127=0,"145",IF(O127=3,"150","155"))</f>
+        <f t="shared" ref="V127" si="1027">IF(O127=0,"145",IF(O127=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W127">
-        <f t="shared" ref="W127" si="1030">N127/M127</f>
+        <f t="shared" ref="W127" si="1028">N127/M127</f>
         <v>5.1318681318681323</v>
       </c>
       <c r="X127" t="str">
-        <f t="shared" ref="X127" si="1031">IF(O127=0,INDEX($AG$13:$AG$33,MATCH(W127,$AI$13:$AI$33,0)),IF(O127=3,INDEX($AG$35:$AG$54,MATCH(W127,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W127,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="X127" si="1029">IF(O127=0,INDEX($AG$13:$AG$33,MATCH(W127,$AI$13:$AI$33,0)),IF(O127=3,INDEX($AG$35:$AG$54,MATCH(W127,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W127,$AI$56:$AI$79,0))))</f>
         <v>155R567</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>-208.69413392999999</v>
       </c>
@@ -10093,7 +10091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>-237.50090399999999</v>
       </c>
@@ -10104,51 +10102,51 @@
         <v>6</v>
       </c>
       <c r="F129">
-        <f t="shared" ref="F129" si="1032">A129+300</f>
+        <f t="shared" ref="F129" si="1030">A129+300</f>
         <v>62.499096000000009</v>
       </c>
       <c r="G129">
-        <f t="shared" ref="G129" si="1033">B129</f>
+        <f t="shared" ref="G129" si="1031">B129</f>
         <v>464.70378017000002</v>
       </c>
       <c r="H129">
-        <f t="shared" ref="H129" si="1034">A130+300</f>
+        <f t="shared" ref="H129" si="1032">A130+300</f>
         <v>86.391196919999999</v>
       </c>
       <c r="I129">
-        <f t="shared" ref="I129" si="1035">B130</f>
+        <f t="shared" ref="I129" si="1033">B130</f>
         <v>464.68882367999998</v>
       </c>
       <c r="J129">
-        <f t="shared" ref="J129" si="1036">MROUND(F129,1)</f>
+        <f t="shared" ref="J129" si="1034">MROUND(F129,1)</f>
         <v>62</v>
       </c>
       <c r="K129">
-        <f t="shared" ref="K129" si="1037">IF($C129=0,MROUND(G129,1)+50,IF($C129=3,MROUND(G129,1)+100,MROUND(G129,1)))</f>
+        <f t="shared" ref="K129" si="1035">IF($C129=0,MROUND(G129,1)+50,IF($C129=3,MROUND(G129,1)+100,MROUND(G129,1)))</f>
         <v>465</v>
       </c>
       <c r="L129">
-        <f t="shared" ref="L129" si="1038">C129</f>
+        <f t="shared" ref="L129" si="1036">C129</f>
         <v>6</v>
       </c>
       <c r="M129">
-        <f t="shared" ref="M129" si="1039">MROUND(H129,1)</f>
+        <f t="shared" ref="M129" si="1037">MROUND(H129,1)</f>
         <v>86</v>
       </c>
       <c r="N129">
-        <f t="shared" ref="N129" si="1040">IF($C129=0,MROUND(I129,1)+50,IF($C129=3,MROUND(I129,1)+100,MROUND(I129,1)))</f>
+        <f t="shared" ref="N129" si="1038">IF($C129=0,MROUND(I129,1)+50,IF($C129=3,MROUND(I129,1)+100,MROUND(I129,1)))</f>
         <v>465</v>
       </c>
       <c r="O129">
-        <f t="shared" ref="O129" si="1041">C130</f>
+        <f t="shared" ref="O129" si="1039">C130</f>
         <v>6</v>
       </c>
       <c r="S129" t="str">
-        <f t="shared" ref="S129" si="1042">IF(L129=0,"145",IF(L129=3,"150","155"))</f>
+        <f t="shared" ref="S129" si="1040">IF(L129=0,"145",IF(L129=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="T129">
-        <f t="shared" ref="T129" si="1043">K129/J129</f>
+        <f t="shared" ref="T129" si="1041">K129/J129</f>
         <v>7.5</v>
       </c>
       <c r="U129" t="str">
@@ -10156,19 +10154,19 @@
         <v>155A7</v>
       </c>
       <c r="V129" t="str">
-        <f t="shared" ref="V129" si="1044">IF(O129=0,"145",IF(O129=3,"150","155"))</f>
+        <f t="shared" ref="V129" si="1042">IF(O129=0,"145",IF(O129=3,"150","155"))</f>
         <v>155</v>
       </c>
       <c r="W129">
-        <f t="shared" ref="W129" si="1045">N129/M129</f>
+        <f t="shared" ref="W129" si="1043">N129/M129</f>
         <v>5.4069767441860463</v>
       </c>
       <c r="X129" t="str">
-        <f t="shared" ref="X129" si="1046">IF(O129=0,INDEX($AG$13:$AG$33,MATCH(W129,$AI$13:$AI$33,0)),IF(O129=3,INDEX($AG$35:$AG$54,MATCH(W129,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W129,$AI$56:$AI$79,0))))</f>
+        <f t="shared" ref="X129" si="1044">IF(O129=0,INDEX($AG$13:$AG$33,MATCH(W129,$AI$13:$AI$33,0)),IF(O129=3,INDEX($AG$35:$AG$54,MATCH(W129,$AI$35:$AI$54,0)),INDEX($AG$56:$AG$79,MATCH(W129,$AI$56:$AI$79,0))))</f>
         <v>155DICEA</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>-213.60880308</v>
       </c>
@@ -10209,17 +10207,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -10239,7 +10237,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3">
         <f>'foglio calcoli'!AC13</f>
         <v>71</v>
@@ -10265,7 +10263,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4">
         <f>'foglio calcoli'!AC14</f>
         <v>87</v>
@@ -10291,7 +10289,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5">
         <f>'foglio calcoli'!AC15</f>
         <v>90</v>
@@ -10317,7 +10315,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6">
         <f>'foglio calcoli'!AC16</f>
         <v>100</v>
@@ -10343,7 +10341,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7">
         <f>'foglio calcoli'!AC17</f>
         <v>119</v>
@@ -10369,7 +10367,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8">
         <f>'foglio calcoli'!AC18</f>
         <v>133</v>
@@ -10395,7 +10393,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9">
         <f>'foglio calcoli'!AC19</f>
         <v>133</v>
@@ -10421,7 +10419,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <f>'foglio calcoli'!AC20</f>
         <v>133</v>
@@ -10447,7 +10445,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <f>'foglio calcoli'!AC21</f>
         <v>145</v>
@@ -10473,7 +10471,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>'foglio calcoli'!AC22</f>
         <v>91</v>
@@ -10499,7 +10497,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13">
         <f>'foglio calcoli'!AC23</f>
         <v>143</v>
@@ -10525,7 +10523,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>'foglio calcoli'!AC24</f>
         <v>87</v>
@@ -10551,7 +10549,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15">
         <f>'foglio calcoli'!AC25</f>
         <v>90</v>
@@ -10577,7 +10575,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16">
         <f>'foglio calcoli'!AC26</f>
         <v>130</v>
@@ -10603,7 +10601,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17">
         <f>'foglio calcoli'!AC27</f>
         <v>133</v>
@@ -10629,7 +10627,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18">
         <f>'foglio calcoli'!AC28</f>
         <v>135</v>
@@ -10655,7 +10653,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19">
         <f>'foglio calcoli'!AC29</f>
         <v>109</v>
@@ -10681,7 +10679,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20">
         <f>'foglio calcoli'!AC30</f>
         <v>63</v>
@@ -10707,7 +10705,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21">
         <f>'foglio calcoli'!AC31</f>
         <v>85</v>
@@ -10733,7 +10731,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22">
         <f>'foglio calcoli'!AC32</f>
         <v>112</v>
@@ -10759,7 +10757,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23">
         <f>'foglio calcoli'!AC33</f>
         <v>145</v>
@@ -10785,7 +10783,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24">
         <f>'foglio calcoli'!AC35</f>
         <v>87</v>
@@ -10811,7 +10809,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25">
         <f>'foglio calcoli'!AC36</f>
         <v>87</v>
@@ -10837,7 +10835,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26">
         <f>'foglio calcoli'!AC37</f>
         <v>90</v>
@@ -10863,7 +10861,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27">
         <f>'foglio calcoli'!AC38</f>
         <v>69</v>
@@ -10889,7 +10887,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28">
         <f>'foglio calcoli'!AC39</f>
         <v>135</v>
@@ -10915,7 +10913,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29">
         <f>'foglio calcoli'!AC40</f>
         <v>135</v>
@@ -10941,7 +10939,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30">
         <f>'foglio calcoli'!AC41</f>
         <v>151</v>
@@ -10967,7 +10965,7 @@
         <v>aulastudio</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31">
         <f>'foglio calcoli'!AC42</f>
         <v>154</v>
@@ -10993,7 +10991,7 @@
         <v>wc2+aula pc+csal</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32">
         <f>'foglio calcoli'!AC43</f>
         <v>157</v>
@@ -11019,7 +11017,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33">
         <f>'foglio calcoli'!AC44</f>
         <v>129</v>
@@ -11045,7 +11043,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34">
         <f>'foglio calcoli'!AC45</f>
         <v>110</v>
@@ -11071,7 +11069,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35">
         <f>'foglio calcoli'!AC46</f>
         <v>92</v>
@@ -11097,7 +11095,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36">
         <f>'foglio calcoli'!AC47</f>
         <v>144</v>
@@ -11123,7 +11121,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37">
         <f>'foglio calcoli'!AC48</f>
         <v>63</v>
@@ -11149,7 +11147,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38">
         <f>'foglio calcoli'!AC49</f>
         <v>152</v>
@@ -11175,7 +11173,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <f>'foglio calcoli'!AC50</f>
         <v>100</v>
@@ -11201,7 +11199,7 @@
         <v>non usata</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40">
         <f>'foglio calcoli'!AC51</f>
         <v>100</v>
@@ -11227,7 +11225,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41">
         <f>'foglio calcoli'!AC52</f>
         <v>150</v>
@@ -11253,7 +11251,7 @@
         <v>uscita aula studio</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42">
         <f>'foglio calcoli'!AC53</f>
         <v>147</v>
@@ -11279,7 +11277,7 @@
         <v>uscita aula150/1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43">
         <f>'foglio calcoli'!AC54</f>
         <v>163</v>
@@ -11305,7 +11303,7 @@
         <v>biblioteca (posizione fittizia)</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44">
         <f>'foglio calcoli'!AC56</f>
         <v>91</v>
@@ -11331,7 +11329,7 @@
         <v>155/5-6 + 155/7</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45">
         <f>'foglio calcoli'!AC57</f>
         <v>100</v>
@@ -11357,7 +11355,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46">
         <f>'foglio calcoli'!AC58</f>
         <v>107</v>
@@ -11383,7 +11381,7 @@
         <v>155/4+155/d3</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47">
         <f>'foglio calcoli'!AC59</f>
         <v>117</v>
@@ -11409,7 +11407,7 @@
         <v>155/2-3+155/d2</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48">
         <f>'foglio calcoli'!AC60</f>
         <v>125</v>
@@ -11435,7 +11433,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49">
         <f>'foglio calcoli'!AC61</f>
         <v>133</v>
@@ -11461,7 +11459,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50">
         <f>'foglio calcoli'!AC62</f>
         <v>136</v>
@@ -11487,7 +11485,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51">
         <f>'foglio calcoli'!AC63</f>
         <v>147</v>
@@ -11513,7 +11511,7 @@
         <v>presso l'affaccio, lato finestre</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52">
         <f>'foglio calcoli'!AC64</f>
         <v>149</v>
@@ -11539,7 +11537,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53">
         <f>'foglio calcoli'!AC65</f>
         <v>154</v>
@@ -11565,7 +11563,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54">
         <f>'foglio calcoli'!AC66</f>
         <v>159</v>
@@ -11591,7 +11589,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55">
         <f>'foglio calcoli'!AC67</f>
         <v>159</v>
@@ -11617,7 +11615,7 @@
         <v>aula "acquario" cesmi</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56">
         <f>'foglio calcoli'!AC68</f>
         <v>160</v>
@@ -11643,7 +11641,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57">
         <f>'foglio calcoli'!AC69</f>
         <v>140</v>
@@ -11669,7 +11667,7 @@
         <v>aula ECDL+155/10</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58">
         <f>'foglio calcoli'!AC70</f>
         <v>86</v>
@@ -11695,7 +11693,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59">
         <f>'foglio calcoli'!AC71</f>
         <v>158</v>
@@ -11721,7 +11719,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60">
         <f>'foglio calcoli'!AC72</f>
         <v>160</v>
@@ -11747,7 +11745,7 @@
         <v>uscita principale lato bancomat</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61">
         <f>'foglio calcoli'!AC73</f>
         <v>91</v>
@@ -11773,7 +11771,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62">
         <f>'foglio calcoli'!AC74</f>
         <v>144</v>
@@ -11799,7 +11797,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63">
         <f>'foglio calcoli'!AC75</f>
         <v>62</v>
@@ -11825,7 +11823,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64">
         <f>'foglio calcoli'!AC76</f>
         <v>156</v>
@@ -11851,7 +11849,7 @@
         <v>non usato</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65">
         <f>'foglio calcoli'!AC77</f>
         <v>154</v>
@@ -11877,7 +11875,7 @@
         <v>non usato</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66">
         <f>'foglio calcoli'!AC78</f>
         <v>100</v>
@@ -11903,7 +11901,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67">
         <f>'foglio calcoli'!AC79</f>
         <v>136</v>
@@ -11943,26 +11941,26 @@
       <selection activeCell="L3" sqref="L3:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="12" width="12.5546875" customWidth="1"/>
+    <col min="11" max="12" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="str">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B1" s="65" t="str">
         <f>'foglio calcoli'!AK1</f>
         <v>P1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="61" t="str">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67" t="str">
         <f>'foglio calcoli'!AP1</f>
         <v>P2</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="9"/>
@@ -11970,7 +11968,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="8"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="str">
         <f>'foglio calcoli'!AK2</f>
         <v>x</v>
@@ -11983,7 +11981,7 @@
         <f>'foglio calcoli'!AN2</f>
         <v>quota</v>
       </c>
-      <c r="E2" s="60" t="str">
+      <c r="E2" s="45" t="str">
         <f>'foglio calcoli'!AO2</f>
         <v>codice</v>
       </c>
@@ -11999,7 +11997,7 @@
         <f>'foglio calcoli'!AS2</f>
         <v>quota</v>
       </c>
-      <c r="I2" s="64" t="str">
+      <c r="I2" s="46" t="str">
         <f>'foglio calcoli'!AT2</f>
         <v>codice</v>
       </c>
@@ -12024,7 +12022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <f>'foglio calcoli'!AK3</f>
         <v>91</v>
@@ -12037,7 +12035,7 @@
         <f>'foglio calcoli'!AN3</f>
         <v>145</v>
       </c>
-      <c r="E3" s="60" t="str">
+      <c r="E3" s="45" t="str">
         <f>'foglio calcoli'!AO3</f>
         <v>145A5</v>
       </c>
@@ -12053,7 +12051,7 @@
         <f>'foglio calcoli'!AS3</f>
         <v>150</v>
       </c>
-      <c r="I3" s="64" t="str">
+      <c r="I3" s="46" t="str">
         <f>'foglio calcoli'!AT3</f>
         <v>150A5</v>
       </c>
@@ -12072,7 +12070,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <f>'foglio calcoli'!AK4</f>
         <v>91</v>
@@ -12085,7 +12083,7 @@
         <f>'foglio calcoli'!AN4</f>
         <v>150</v>
       </c>
-      <c r="E4" s="60" t="str">
+      <c r="E4" s="45" t="str">
         <f>'foglio calcoli'!AO4</f>
         <v>150A5</v>
       </c>
@@ -12101,7 +12099,7 @@
         <f>'foglio calcoli'!AS4</f>
         <v>155</v>
       </c>
-      <c r="I4" s="64" t="str">
+      <c r="I4" s="46" t="str">
         <f>'foglio calcoli'!AT4</f>
         <v>155A5</v>
       </c>
@@ -12120,7 +12118,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <f>'foglio calcoli'!AK5</f>
         <v>144</v>
@@ -12133,7 +12131,7 @@
         <f>'foglio calcoli'!AN5</f>
         <v>145</v>
       </c>
-      <c r="E5" s="60" t="str">
+      <c r="E5" s="45" t="str">
         <f>'foglio calcoli'!AO5</f>
         <v>145A3</v>
       </c>
@@ -12149,7 +12147,7 @@
         <f>'foglio calcoli'!AS5</f>
         <v>150</v>
       </c>
-      <c r="I5" s="64" t="str">
+      <c r="I5" s="46" t="str">
         <f>'foglio calcoli'!AT5</f>
         <v>150A3</v>
       </c>
@@ -12168,7 +12166,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <f>'foglio calcoli'!AK6</f>
         <v>144</v>
@@ -12181,7 +12179,7 @@
         <f>'foglio calcoli'!AN6</f>
         <v>150</v>
       </c>
-      <c r="E6" s="60" t="str">
+      <c r="E6" s="45" t="str">
         <f>'foglio calcoli'!AO6</f>
         <v>150A3</v>
       </c>
@@ -12197,7 +12195,7 @@
         <f>'foglio calcoli'!AS6</f>
         <v>155</v>
       </c>
-      <c r="I6" s="64" t="str">
+      <c r="I6" s="46" t="str">
         <f>'foglio calcoli'!AT6</f>
         <v>155A3</v>
       </c>
@@ -12216,7 +12214,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <f>'foglio calcoli'!AK7</f>
         <v>63</v>
@@ -12229,7 +12227,7 @@
         <f>'foglio calcoli'!AN7</f>
         <v>145</v>
       </c>
-      <c r="E7" s="60" t="str">
+      <c r="E7" s="45" t="str">
         <f>'foglio calcoli'!AO7</f>
         <v>145EMA7</v>
       </c>
@@ -12245,7 +12243,7 @@
         <f>'foglio calcoli'!AS7</f>
         <v>150</v>
       </c>
-      <c r="I7" s="64" t="str">
+      <c r="I7" s="46" t="str">
         <f>'foglio calcoli'!AT7</f>
         <v>150A7</v>
       </c>
@@ -12264,7 +12262,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <f>'foglio calcoli'!AK8</f>
         <v>63</v>
@@ -12277,7 +12275,7 @@
         <f>'foglio calcoli'!AN8</f>
         <v>150</v>
       </c>
-      <c r="E8" s="60" t="str">
+      <c r="E8" s="45" t="str">
         <f>'foglio calcoli'!AO8</f>
         <v>150A7</v>
       </c>
@@ -12293,7 +12291,7 @@
         <f>'foglio calcoli'!AS8</f>
         <v>155</v>
       </c>
-      <c r="I8" s="64" t="str">
+      <c r="I8" s="46" t="str">
         <f>'foglio calcoli'!AT8</f>
         <v>155A7</v>
       </c>
@@ -12325,41 +12323,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="8.88671875" style="6"/>
-    <col min="13" max="13" width="8.88671875" style="8"/>
+    <col min="1" max="3" width="8.90625" style="6"/>
+    <col min="4" max="4" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="8" width="8.90625" style="6"/>
+    <col min="9" max="9" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="8.90625" style="6"/>
+    <col min="13" max="13" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -12372,7 +12370,7 @@
       <c r="D2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -12387,7 +12385,7 @@
       <c r="I2" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="46" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -12400,7 +12398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <f>'foglio calcoli'!J21</f>
         <v>143</v>
@@ -12417,7 +12415,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E3,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E3" s="60" t="str">
+      <c r="E3" s="45" t="str">
         <f>'foglio calcoli'!U21</f>
         <v>145A3</v>
       </c>
@@ -12437,12 +12435,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J3,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J3" s="64" t="str">
+      <c r="J3" s="46" t="str">
         <f>'foglio calcoli'!X21</f>
         <v>145EMA3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <f>'foglio calcoli'!J7</f>
         <v>91</v>
@@ -12459,7 +12457,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E4,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E4" s="60" t="str">
+      <c r="E4" s="45" t="str">
         <f>'foglio calcoli'!U7</f>
         <v>145A5</v>
       </c>
@@ -12479,12 +12477,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J4,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J4" s="64" t="str">
+      <c r="J4" s="46" t="str">
         <f>'foglio calcoli'!X7</f>
         <v>145UA5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <f>'foglio calcoli'!J39</f>
         <v>71</v>
@@ -12501,7 +12499,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E5,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E5" s="60" t="str">
+      <c r="E5" s="45" t="str">
         <f>'foglio calcoli'!U39</f>
         <v>145DICEA</v>
       </c>
@@ -12521,12 +12519,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J5,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J5" s="64" t="str">
+      <c r="J5" s="46" t="str">
         <f>'foglio calcoli'!X39</f>
         <v>145S1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <f>'foglio calcoli'!J41</f>
         <v>63</v>
@@ -12543,7 +12541,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E6,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E6" s="60" t="str">
+      <c r="E6" s="45" t="str">
         <f>'foglio calcoli'!U41</f>
         <v>145EMA7</v>
       </c>
@@ -12563,12 +12561,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J6,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J6" s="64" t="str">
+      <c r="J6" s="46" t="str">
         <f>'foglio calcoli'!X41</f>
         <v>145DICEA</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <f>'foglio calcoli'!J49</f>
         <v>109</v>
@@ -12585,7 +12583,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E7,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.2</v>
       </c>
-      <c r="E7" s="60" t="str">
+      <c r="E7" s="45" t="str">
         <f>'foglio calcoli'!U49</f>
         <v>145EMG1</v>
       </c>
@@ -12605,12 +12603,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J7,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J7" s="64" t="str">
+      <c r="J7" s="46" t="str">
         <f>'foglio calcoli'!X49</f>
         <v>150G1G2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <f>'foglio calcoli'!J3</f>
         <v>112</v>
@@ -12627,7 +12625,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E8,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.2</v>
       </c>
-      <c r="E8" s="60" t="str">
+      <c r="E8" s="45" t="str">
         <f>'foglio calcoli'!U3</f>
         <v>145EMG2</v>
       </c>
@@ -12647,12 +12645,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J8,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J8" s="64" t="str">
+      <c r="J8" s="46" t="str">
         <f>'foglio calcoli'!X3</f>
         <v>145RG2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f>'foglio calcoli'!J33</f>
         <v>119</v>
@@ -12669,7 +12667,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E9,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E9" s="60" t="str">
+      <c r="E9" s="45" t="str">
         <f>'foglio calcoli'!U33</f>
         <v>145R1</v>
       </c>
@@ -12689,12 +12687,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J9,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J9" s="64" t="str">
+      <c r="J9" s="46" t="str">
         <f>'foglio calcoli'!X33</f>
         <v>145WC1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <f>'foglio calcoli'!J35</f>
         <v>100</v>
@@ -12711,7 +12709,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E10,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E10" s="60" t="str">
+      <c r="E10" s="45" t="str">
         <f>'foglio calcoli'!U35</f>
         <v>145R3</v>
       </c>
@@ -12731,12 +12729,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J10,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J10" s="64" t="str">
+      <c r="J10" s="46" t="str">
         <f>'foglio calcoli'!X35</f>
         <v>145R1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <f>'foglio calcoli'!J5</f>
         <v>90</v>
@@ -12753,7 +12751,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E11,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E11" s="60" t="str">
+      <c r="E11" s="45" t="str">
         <f>'foglio calcoli'!U5</f>
         <v>145RG1</v>
       </c>
@@ -12773,12 +12771,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J11,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.2</v>
       </c>
-      <c r="J11" s="64" t="str">
+      <c r="J11" s="46" t="str">
         <f>'foglio calcoli'!X5</f>
         <v>145EMG1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <f>'foglio calcoli'!J9</f>
         <v>90</v>
@@ -12795,7 +12793,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E12,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E12" s="60" t="str">
+      <c r="E12" s="45" t="str">
         <f>'foglio calcoli'!U9</f>
         <v>145RG1</v>
       </c>
@@ -12815,12 +12813,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J12,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J12" s="64" t="str">
+      <c r="J12" s="46" t="str">
         <f>'foglio calcoli'!X9</f>
         <v>145A5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f>'foglio calcoli'!J11</f>
         <v>90</v>
@@ -12837,7 +12835,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E13,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E13" s="60" t="str">
+      <c r="E13" s="45" t="str">
         <f>'foglio calcoli'!U11</f>
         <v>145RG1</v>
       </c>
@@ -12857,12 +12855,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J13,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J13" s="64" t="str">
+      <c r="J13" s="46" t="str">
         <f>'foglio calcoli'!X11</f>
         <v>145U1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <f>'foglio calcoli'!J27</f>
         <v>133</v>
@@ -12879,7 +12877,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E14,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E14" s="60" t="str">
+      <c r="E14" s="45" t="str">
         <f>'foglio calcoli'!U27</f>
         <v>145RG2</v>
       </c>
@@ -12899,12 +12897,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J14,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J14" s="64" t="str">
+      <c r="J14" s="46" t="str">
         <f>'foglio calcoli'!X27</f>
         <v>145U2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f>'foglio calcoli'!J13</f>
         <v>87</v>
@@ -12921,7 +12919,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E15,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E15" s="60" t="str">
+      <c r="E15" s="45" t="str">
         <f>'foglio calcoli'!U13</f>
         <v>145S1</v>
       </c>
@@ -12941,12 +12939,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J15,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J15" s="64" t="str">
+      <c r="J15" s="46" t="str">
         <f>'foglio calcoli'!X13</f>
         <v>145RG1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f>'foglio calcoli'!J15</f>
         <v>87</v>
@@ -12963,7 +12961,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E16,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E16" s="60" t="str">
+      <c r="E16" s="45" t="str">
         <f>'foglio calcoli'!U15</f>
         <v>145S1</v>
       </c>
@@ -12983,12 +12981,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J16,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J16" s="64" t="str">
+      <c r="J16" s="46" t="str">
         <f>'foglio calcoli'!X15</f>
         <v>145EM1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <f>'foglio calcoli'!J37</f>
         <v>87</v>
@@ -13005,7 +13003,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E17,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E17" s="60" t="str">
+      <c r="E17" s="45" t="str">
         <f>'foglio calcoli'!U37</f>
         <v>145S1</v>
       </c>
@@ -13025,12 +13023,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J17,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J17" s="64" t="str">
+      <c r="J17" s="46" t="str">
         <f>'foglio calcoli'!X37</f>
         <v>145R3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <f>'foglio calcoli'!J25</f>
         <v>133</v>
@@ -13047,7 +13045,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E18,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E18" s="60" t="str">
+      <c r="E18" s="45" t="str">
         <f>'foglio calcoli'!U25</f>
         <v>145S2</v>
       </c>
@@ -13067,12 +13065,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J18,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J18" s="64" t="str">
+      <c r="J18" s="46" t="str">
         <f>'foglio calcoli'!X25</f>
         <v>145S3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <f>'foglio calcoli'!J29</f>
         <v>133</v>
@@ -13089,7 +13087,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E19,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="60" t="str">
+      <c r="E19" s="45" t="str">
         <f>'foglio calcoli'!U29</f>
         <v>145S2</v>
       </c>
@@ -13109,12 +13107,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J19,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J19" s="64" t="str">
+      <c r="J19" s="46" t="str">
         <f>'foglio calcoli'!X29</f>
         <v>145RG2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f>'foglio calcoli'!J23</f>
         <v>145</v>
@@ -13131,7 +13129,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E20,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E20" s="60" t="str">
+      <c r="E20" s="45" t="str">
         <f>'foglio calcoli'!U23</f>
         <v>145S3</v>
       </c>
@@ -13151,12 +13149,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J20,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J20" s="64" t="str">
+      <c r="J20" s="46" t="str">
         <f>'foglio calcoli'!X23</f>
         <v>145A3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <f>'foglio calcoli'!J17</f>
         <v>133</v>
@@ -13173,7 +13171,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E21,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E21" s="60" t="str">
+      <c r="E21" s="45" t="str">
         <f>'foglio calcoli'!U17</f>
         <v>145WC1</v>
       </c>
@@ -13193,12 +13191,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J21,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J21" s="64" t="str">
+      <c r="J21" s="46" t="str">
         <f>'foglio calcoli'!X17</f>
         <v>145RAM</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <f>'foglio calcoli'!J19</f>
         <v>133</v>
@@ -13215,7 +13213,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E22,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="60" t="str">
+      <c r="E22" s="45" t="str">
         <f>'foglio calcoli'!U19</f>
         <v>145WC1</v>
       </c>
@@ -13235,12 +13233,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J22,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J22" s="64" t="str">
+      <c r="J22" s="46" t="str">
         <f>'foglio calcoli'!X19</f>
         <v>145U3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f>'foglio calcoli'!J31</f>
         <v>133</v>
@@ -13257,7 +13255,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E23,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="60" t="str">
+      <c r="E23" s="45" t="str">
         <f>'foglio calcoli'!U31</f>
         <v>145WC1</v>
       </c>
@@ -13277,12 +13275,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J23,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J23" s="64" t="str">
+      <c r="J23" s="46" t="str">
         <f>'foglio calcoli'!X31</f>
         <v>145S2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <f>'foglio calcoli'!J69</f>
         <v>144</v>
@@ -13299,7 +13297,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E24,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E24" s="60" t="str">
+      <c r="E24" s="45" t="str">
         <f>'foglio calcoli'!U69</f>
         <v>150A3</v>
       </c>
@@ -13319,12 +13317,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J24,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J24" s="64" t="str">
+      <c r="J24" s="46" t="str">
         <f>'foglio calcoli'!X69</f>
         <v>150R2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f>'foglio calcoli'!J85</f>
         <v>63</v>
@@ -13341,7 +13339,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E25,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E25" s="60" t="str">
+      <c r="E25" s="45" t="str">
         <f>'foglio calcoli'!U85</f>
         <v>150A7</v>
       </c>
@@ -13361,12 +13359,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J25,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J25" s="64" t="str">
+      <c r="J25" s="46" t="str">
         <f>'foglio calcoli'!X85</f>
         <v>150DICEA1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f>'foglio calcoli'!J51</f>
         <v>90</v>
@@ -13383,7 +13381,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E26,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E26" s="60" t="str">
+      <c r="E26" s="45" t="str">
         <f>'foglio calcoli'!U51</f>
         <v>150DICEA</v>
       </c>
@@ -13403,12 +13401,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J26,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J26" s="64" t="str">
+      <c r="J26" s="46" t="str">
         <f>'foglio calcoli'!X51</f>
         <v>150A5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f>'foglio calcoli'!J83</f>
         <v>69</v>
@@ -13425,7 +13423,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E27,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E27" s="60" t="str">
+      <c r="E27" s="45" t="str">
         <f>'foglio calcoli'!U83</f>
         <v>150DICEA1</v>
       </c>
@@ -13445,12 +13443,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J27,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J27" s="64" t="str">
+      <c r="J27" s="46" t="str">
         <f>'foglio calcoli'!X83</f>
         <v>150G1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <f>'foglio calcoli'!J77</f>
         <v>100</v>
@@ -13467,7 +13465,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E28,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E28" s="60" t="str">
+      <c r="E28" s="45" t="str">
         <f>'foglio calcoli'!U77</f>
         <v>150EMA7</v>
       </c>
@@ -13487,12 +13485,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J28,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J28" s="64" t="str">
+      <c r="J28" s="46" t="str">
         <f>'foglio calcoli'!X77</f>
         <v>150WC1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f>'foglio calcoli'!J53</f>
         <v>87</v>
@@ -13509,7 +13507,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E29,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E29" s="60" t="str">
+      <c r="E29" s="45" t="str">
         <f>'foglio calcoli'!U53</f>
         <v>150G1</v>
       </c>
@@ -13529,12 +13527,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J29,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J29" s="64" t="str">
+      <c r="J29" s="46" t="str">
         <f>'foglio calcoli'!X53</f>
         <v>150DICEA</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <f>'foglio calcoli'!J81</f>
         <v>87</v>
@@ -13551,7 +13549,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E30,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E30" s="60" t="str">
+      <c r="E30" s="45" t="str">
         <f>'foglio calcoli'!U81</f>
         <v>150G1</v>
       </c>
@@ -13571,12 +13569,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J30,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J30" s="64" t="str">
+      <c r="J30" s="46" t="str">
         <f>'foglio calcoli'!X81</f>
         <v>150STRADE</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f>'foglio calcoli'!J43</f>
         <v>110</v>
@@ -13593,7 +13591,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E31,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E31" s="60" t="str">
+      <c r="E31" s="45" t="str">
         <f>'foglio calcoli'!U43</f>
         <v>150G1G2</v>
       </c>
@@ -13613,12 +13611,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J31,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J31" s="64" t="str">
+      <c r="J31" s="46" t="str">
         <f>'foglio calcoli'!X43</f>
         <v>150G2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <f>'foglio calcoli'!J45</f>
         <v>110</v>
@@ -13635,7 +13633,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E32,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E32" s="60" t="str">
+      <c r="E32" s="45" t="str">
         <f>'foglio calcoli'!U45</f>
         <v>150G1G2</v>
       </c>
@@ -13655,12 +13653,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J32,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.2</v>
       </c>
-      <c r="J32" s="64" t="str">
+      <c r="J32" s="46" t="str">
         <f>'foglio calcoli'!X45</f>
         <v>145EMG2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f>'foglio calcoli'!J47</f>
         <v>110</v>
@@ -13677,7 +13675,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E33,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E33" s="60" t="str">
+      <c r="E33" s="45" t="str">
         <f>'foglio calcoli'!U47</f>
         <v>150G1G2</v>
       </c>
@@ -13697,12 +13695,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J33,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J33" s="64" t="str">
+      <c r="J33" s="46" t="str">
         <f>'foglio calcoli'!X47</f>
         <v>150G1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <f>'foglio calcoli'!J57</f>
         <v>157</v>
@@ -13719,7 +13717,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E34,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E34" s="60" t="str">
+      <c r="E34" s="45" t="str">
         <f>'foglio calcoli'!U57</f>
         <v>150R1</v>
       </c>
@@ -13739,12 +13737,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J34,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J34" s="64" t="str">
+      <c r="J34" s="46" t="str">
         <f>'foglio calcoli'!X57</f>
         <v>150RL</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <f>'foglio calcoli'!J59</f>
         <v>157</v>
@@ -13761,7 +13759,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E35,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E35" s="60" t="str">
+      <c r="E35" s="45" t="str">
         <f>'foglio calcoli'!U59</f>
         <v>150R1</v>
       </c>
@@ -13781,12 +13779,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J35,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J35" s="64" t="str">
+      <c r="J35" s="46" t="str">
         <f>'foglio calcoli'!X59</f>
         <v>150EMRL</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f>'foglio calcoli'!J65</f>
         <v>135</v>
@@ -13803,7 +13801,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E36,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E36" s="60" t="str">
+      <c r="E36" s="45" t="str">
         <f>'foglio calcoli'!U65</f>
         <v>150R2</v>
       </c>
@@ -13823,12 +13821,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J36,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J36" s="64" t="str">
+      <c r="J36" s="46" t="str">
         <f>'foglio calcoli'!X65</f>
         <v>150WC1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f>'foglio calcoli'!J67</f>
         <v>135</v>
@@ -13845,7 +13843,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E37,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E37" s="60" t="str">
+      <c r="E37" s="45" t="str">
         <f>'foglio calcoli'!U67</f>
         <v>150R2</v>
       </c>
@@ -13865,12 +13863,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J37,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J37" s="64" t="str">
+      <c r="J37" s="46" t="str">
         <f>'foglio calcoli'!X67</f>
         <v>150G2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <f>'foglio calcoli'!J63</f>
         <v>152</v>
@@ -13887,7 +13885,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E38,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E38" s="60" t="str">
+      <c r="E38" s="45" t="str">
         <f>'foglio calcoli'!U63</f>
         <v>150RAM</v>
       </c>
@@ -13907,12 +13905,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J38,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J38" s="64" t="str">
+      <c r="J38" s="46" t="str">
         <f>'foglio calcoli'!X63</f>
         <v>150BIB</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <f>'foglio calcoli'!J73</f>
         <v>152</v>
@@ -13929,7 +13927,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E39,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E39" s="60" t="str">
+      <c r="E39" s="45" t="str">
         <f>'foglio calcoli'!U73</f>
         <v>150RAM</v>
       </c>
@@ -13949,12 +13947,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J39,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J39" s="64" t="str">
+      <c r="J39" s="46" t="str">
         <f>'foglio calcoli'!X73</f>
         <v>150S1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <f>'foglio calcoli'!J55</f>
         <v>151</v>
@@ -13971,7 +13969,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E40,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E40" s="60" t="str">
+      <c r="E40" s="45" t="str">
         <f>'foglio calcoli'!U55</f>
         <v>150RL</v>
       </c>
@@ -13991,12 +13989,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J40,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J40" s="64" t="str">
+      <c r="J40" s="46" t="str">
         <f>'foglio calcoli'!X55</f>
         <v>150EMR1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <f>'foglio calcoli'!J61</f>
         <v>154</v>
@@ -14013,7 +14011,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E41,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E41" s="60" t="str">
+      <c r="E41" s="45" t="str">
         <f>'foglio calcoli'!U61</f>
         <v>150S1</v>
       </c>
@@ -14033,12 +14031,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J41,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J41" s="64" t="str">
+      <c r="J41" s="46" t="str">
         <f>'foglio calcoli'!X61</f>
         <v>150R1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <f>'foglio calcoli'!J71</f>
         <v>154</v>
@@ -14055,7 +14053,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E42,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E42" s="60" t="str">
+      <c r="E42" s="45" t="str">
         <f>'foglio calcoli'!U71</f>
         <v>150S1</v>
       </c>
@@ -14075,12 +14073,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J42,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J42" s="64" t="str">
+      <c r="J42" s="46" t="str">
         <f>'foglio calcoli'!X71</f>
         <v>150A3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <f>'foglio calcoli'!J79</f>
         <v>87</v>
@@ -14097,7 +14095,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E43,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E43" s="60" t="str">
+      <c r="E43" s="45" t="str">
         <f>'foglio calcoli'!U79</f>
         <v>150STRADE</v>
       </c>
@@ -14117,12 +14115,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J43,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J43" s="64" t="str">
+      <c r="J43" s="46" t="str">
         <f>'foglio calcoli'!X79</f>
         <v>150EMA7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <f>'foglio calcoli'!J75</f>
         <v>135</v>
@@ -14139,7 +14137,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E44,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E44" s="60" t="str">
+      <c r="E44" s="45" t="str">
         <f>'foglio calcoli'!U75</f>
         <v>150WC1</v>
       </c>
@@ -14159,12 +14157,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J44,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J44" s="64" t="str">
+      <c r="J44" s="46" t="str">
         <f>'foglio calcoli'!X75</f>
         <v>150RAM</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <f>'foglio calcoli'!J129</f>
         <v>62</v>
@@ -14181,7 +14179,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E45,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E45" s="60" t="str">
+      <c r="E45" s="45" t="str">
         <f>'foglio calcoli'!U129</f>
         <v>155A7</v>
       </c>
@@ -14201,12 +14199,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J45,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J45" s="64" t="str">
+      <c r="J45" s="46" t="str">
         <f>'foglio calcoli'!X129</f>
         <v>155DICEA</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <f>'foglio calcoli'!J93</f>
         <v>159</v>
@@ -14223,7 +14221,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E46,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E46" s="60" t="str">
+      <c r="E46" s="45" t="str">
         <f>'foglio calcoli'!U93</f>
         <v>155ACQ</v>
       </c>
@@ -14243,12 +14241,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J46,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J46" s="64" t="str">
+      <c r="J46" s="46" t="str">
         <f>'foglio calcoli'!X93</f>
         <v>155EM4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <f>'foglio calcoli'!J107</f>
         <v>159</v>
@@ -14265,7 +14263,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E47,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E47" s="60" t="str">
+      <c r="E47" s="45" t="str">
         <f>'foglio calcoli'!U107</f>
         <v>155ACQ</v>
       </c>
@@ -14285,12 +14283,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J47,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J47" s="64" t="str">
+      <c r="J47" s="46" t="str">
         <f>'foglio calcoli'!X107</f>
         <v>155CESMI</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <f>'foglio calcoli'!J103</f>
         <v>159</v>
@@ -14307,7 +14305,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E48,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E48" s="60" t="str">
+      <c r="E48" s="45" t="str">
         <f>'foglio calcoli'!U103</f>
         <v>155CESMI</v>
       </c>
@@ -14327,12 +14325,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J48,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J48" s="64" t="str">
+      <c r="J48" s="46" t="str">
         <f>'foglio calcoli'!X103</f>
         <v>155WC2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <f>'foglio calcoli'!J105</f>
         <v>159</v>
@@ -14349,7 +14347,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E49,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E49" s="60" t="str">
+      <c r="E49" s="45" t="str">
         <f>'foglio calcoli'!U105</f>
         <v>155CESMI</v>
       </c>
@@ -14369,12 +14367,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J49,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J49" s="64" t="str">
+      <c r="J49" s="46" t="str">
         <f>'foglio calcoli'!X105</f>
         <v>155BAR</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <f>'foglio calcoli'!J127</f>
         <v>86</v>
@@ -14391,7 +14389,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E50,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E50" s="60" t="str">
+      <c r="E50" s="45" t="str">
         <f>'foglio calcoli'!U127</f>
         <v>155DICEA</v>
       </c>
@@ -14411,12 +14409,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J50,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J50" s="64" t="str">
+      <c r="J50" s="46" t="str">
         <f>'foglio calcoli'!X127</f>
         <v>155R567</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <f>'foglio calcoli'!J97</f>
         <v>140</v>
@@ -14433,7 +14431,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E51,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E51" s="60" t="str">
+      <c r="E51" s="45" t="str">
         <f>'foglio calcoli'!U97</f>
         <v>155ECDL</v>
       </c>
@@ -14453,12 +14451,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J51,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J51" s="64" t="str">
+      <c r="J51" s="46" t="str">
         <f>'foglio calcoli'!X97</f>
         <v>155WC2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <f>'foglio calcoli'!J113</f>
         <v>136</v>
@@ -14475,7 +14473,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E52,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E52" s="60" t="str">
+      <c r="E52" s="45" t="str">
         <f>'foglio calcoli'!U113</f>
         <v>155EM1</v>
       </c>
@@ -14495,12 +14493,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J52,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J52" s="64" t="str">
+      <c r="J52" s="46" t="str">
         <f>'foglio calcoli'!X113</f>
         <v>155S1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <f>'foglio calcoli'!J109</f>
         <v>154</v>
@@ -14517,7 +14515,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E53,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E53" s="60" t="str">
+      <c r="E53" s="45" t="str">
         <f>'foglio calcoli'!U109</f>
         <v>155EM3</v>
       </c>
@@ -14537,12 +14535,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J53,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J53" s="64" t="str">
+      <c r="J53" s="46" t="str">
         <f>'foglio calcoli'!X109</f>
         <v>155ACQ</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <f>'foglio calcoli'!J91</f>
         <v>160</v>
@@ -14559,7 +14557,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E54,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E54" s="60" t="str">
+      <c r="E54" s="45" t="str">
         <f>'foglio calcoli'!U91</f>
         <v>155EM4</v>
       </c>
@@ -14579,12 +14577,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J54,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J54" s="64" t="str">
+      <c r="J54" s="46" t="str">
         <f>'foglio calcoli'!X91</f>
         <v>155UP</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <f>'foglio calcoli'!J119</f>
         <v>117</v>
@@ -14601,7 +14599,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E55,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E55" s="60" t="str">
+      <c r="E55" s="45" t="str">
         <f>'foglio calcoli'!U119</f>
         <v>155R23D2</v>
       </c>
@@ -14621,12 +14619,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J55,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J55" s="64" t="str">
+      <c r="J55" s="46" t="str">
         <f>'foglio calcoli'!X119</f>
         <v>155RD1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <f>'foglio calcoli'!J89</f>
         <v>100</v>
@@ -14643,7 +14641,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E56,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E56" s="60" t="str">
+      <c r="E56" s="45" t="str">
         <f>'foglio calcoli'!U89</f>
         <v>155R4</v>
       </c>
@@ -14663,12 +14661,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J56,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J56" s="64" t="str">
+      <c r="J56" s="46" t="str">
         <f>'foglio calcoli'!X89</f>
         <v>155EM1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <f>'foglio calcoli'!J123</f>
         <v>100</v>
@@ -14685,7 +14683,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E57,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E57" s="60" t="str">
+      <c r="E57" s="45" t="str">
         <f>'foglio calcoli'!U123</f>
         <v>155R4</v>
       </c>
@@ -14705,12 +14703,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J57,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J57" s="64" t="str">
+      <c r="J57" s="46" t="str">
         <f>'foglio calcoli'!X123</f>
         <v>155R4D3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <f>'foglio calcoli'!J121</f>
         <v>107</v>
@@ -14727,7 +14725,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E58,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E58" s="60" t="str">
+      <c r="E58" s="45" t="str">
         <f>'foglio calcoli'!U121</f>
         <v>155R4D3</v>
       </c>
@@ -14747,12 +14745,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J58,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J58" s="64" t="str">
+      <c r="J58" s="46" t="str">
         <f>'foglio calcoli'!X121</f>
         <v>155R23D2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <f>'foglio calcoli'!J87</f>
         <v>91</v>
@@ -14769,7 +14767,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E59,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E59" s="60" t="str">
+      <c r="E59" s="45" t="str">
         <f>'foglio calcoli'!U87</f>
         <v>155R567</v>
       </c>
@@ -14789,12 +14787,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J59,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J59" s="64" t="str">
+      <c r="J59" s="46" t="str">
         <f>'foglio calcoli'!X87</f>
         <v>155A5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <f>'foglio calcoli'!J125</f>
         <v>91</v>
@@ -14811,7 +14809,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E60,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E60" s="60" t="str">
+      <c r="E60" s="45" t="str">
         <f>'foglio calcoli'!U125</f>
         <v>155R567</v>
       </c>
@@ -14831,12 +14829,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J60,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J60" s="64" t="str">
+      <c r="J60" s="46" t="str">
         <f>'foglio calcoli'!X125</f>
         <v>155R4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <f>'foglio calcoli'!J117</f>
         <v>125</v>
@@ -14853,7 +14851,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E61,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E61" s="60" t="str">
+      <c r="E61" s="45" t="str">
         <f>'foglio calcoli'!U117</f>
         <v>155RD1</v>
       </c>
@@ -14873,12 +14871,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J61,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J61" s="64" t="str">
+      <c r="J61" s="46" t="str">
         <f>'foglio calcoli'!X117</f>
         <v>155WC1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <f>'foglio calcoli'!J95</f>
         <v>147</v>
@@ -14895,7 +14893,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E62,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E62" s="60" t="str">
+      <c r="E62" s="45" t="str">
         <f>'foglio calcoli'!U95</f>
         <v>155S1</v>
       </c>
@@ -14915,12 +14913,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J62,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J62" s="64" t="str">
+      <c r="J62" s="46" t="str">
         <f>'foglio calcoli'!X95</f>
         <v>155WC2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <f>'foglio calcoli'!J111</f>
         <v>147</v>
@@ -14937,16 +14935,14 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E63,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E63" s="60" t="str">
+      <c r="E63" s="45" t="str">
         <f>'foglio calcoli'!U111</f>
         <v>155S1</v>
       </c>
       <c r="F63" s="9">
-        <f>'foglio calcoli'!M111</f>
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G63" s="6">
-        <f>'foglio calcoli'!N111</f>
         <v>456</v>
       </c>
       <c r="H63" s="6" t="str">
@@ -14957,12 +14953,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J63,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="J63" s="64" t="str">
+      <c r="J63" s="46" t="str">
         <f>'foglio calcoli'!X111</f>
-        <v>155EM3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155U1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <f>'foglio calcoli'!J99</f>
         <v>133</v>
@@ -14979,7 +14975,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E64,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E64" s="60" t="str">
+      <c r="E64" s="45" t="str">
         <f>'foglio calcoli'!U99</f>
         <v>155WC1</v>
       </c>
@@ -14999,12 +14995,12 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J64,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J64" s="64" t="str">
+      <c r="J64" s="46" t="str">
         <f>'foglio calcoli'!X99</f>
         <v>155ECDL</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <f>'foglio calcoli'!J115</f>
         <v>133</v>
@@ -15021,7 +15017,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E65,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="E65" s="60" t="str">
+      <c r="E65" s="45" t="str">
         <f>'foglio calcoli'!U115</f>
         <v>155WC1</v>
       </c>
@@ -15039,14 +15035,14 @@
       </c>
       <c r="I65" s="6">
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J65,'elenco nodi'!$F$3:$F$67,0),1)</f>
-        <v>1.8</v>
-      </c>
-      <c r="J65" s="64" t="str">
+        <v>3</v>
+      </c>
+      <c r="J65" s="46" t="str">
         <f>'foglio calcoli'!X115</f>
-        <v>155EM1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155U1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <f>'foglio calcoli'!J101</f>
         <v>149</v>
@@ -15063,7 +15059,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!E66,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E66" s="60" t="str">
+      <c r="E66" s="45" t="str">
         <f>'foglio calcoli'!U101</f>
         <v>155WC2</v>
       </c>
@@ -15083,7 +15079,7 @@
         <f>INDEX('elenco nodi'!$E$3:$E$67,MATCH('vie di piano'!J66,'elenco nodi'!$F$3:$F$67,0),1)</f>
         <v>1.8</v>
       </c>
-      <c r="J66" s="64" t="str">
+      <c r="J66" s="46" t="str">
         <f>'foglio calcoli'!X101</f>
         <v>155A3</v>
       </c>
